--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.449</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.407</v>
+        <v>19.982</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.16</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.75</v>
+        <v>19.984</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.218</v>
+        <v>17.149</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.37381111626221</v>
+        <v>-13.27592170648004</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.36718085454335</v>
+        <v>14.11112020706982</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.48030357185768</v>
+        <v>22.00769155473633</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.27232597722982</v>
+        <v>-9.527552358388544</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.45644356436325</v>
+        <v>8.619986090821971</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.46733216374401</v>
+        <v>14.64809363919177</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.32473982744549</v>
+        <v>2.035516676027346</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.55036716088923</v>
+        <v>17.42903583261286</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.56076463381626</v>
+        <v>22.93672369456182</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.38223701364573</v>
+        <v>22.45514676745553</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.41398862740916</v>
+        <v>31.16925799263847</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.40116279813404</v>
+        <v>35.5916675215873</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.47299708064988</v>
+        <v>0.8236542784626586</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.41730013488477</v>
+        <v>22.65915762642375</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.57563646023658</v>
+        <v>31.40086296323559</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.26832690293704</v>
+        <v>-10.6124647370958</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.40125518466275</v>
+        <v>16.7782289378837</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.45241459539715</v>
+        <v>24.67819505437059</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.26111961427121</v>
+        <v>-6.868442074985392</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.31746801936272</v>
+        <v>11.28238963619562</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.33520881183092</v>
+        <v>17.3138283696642</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.27561746289251</v>
+        <v>4.697847845094561</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.39735680550352</v>
+        <v>20.0948651201003</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.37440281155144</v>
+        <v>-3.651620347174326</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.39256560727295</v>
+        <v>23.73638697715684</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.47977087216261</v>
+        <v>31.63290173781185</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.27659286330826</v>
+        <v>0.09847412419118839</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.50177493422093</v>
+        <v>18.24691279932678</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.50667944851313</v>
+        <v>24.27493111036553</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.34717286491726</v>
+        <v>11.66233586270791</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.63130624397088</v>
+        <v>27.05663770322123</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.62942040733739</v>
+        <v>32.56423079630976</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.64051453100423</v>
+        <v>32.08336029284386</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.70061251231401</v>
+        <v>40.7975967241721</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.68399358239909</v>
+        <v>45.21997025958252</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.62151069727649</v>
+        <v>10.45083864763037</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.71805487290586</v>
+        <v>32.28746371319166</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.73261894715848</v>
+        <v>41.02899703989432</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.38080049283303</v>
+        <v>-0.9862859091287923</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.42989119715468</v>
+        <v>26.40537326418702</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.45726245539382</v>
+        <v>34.30528286481594</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.26363503032004</v>
+        <v>2.759462036774284</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.43981384089271</v>
+        <v>20.91119405477095</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.45838241725337</v>
+        <v>26.94254362996709</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.5367856751629</v>
+        <v>29.72434487079979</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.33145159407918</v>
+        <v>0.1416888332743333</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.39484105625823</v>
+        <v>27.52995714243493</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.49374984995607</v>
+        <v>35.42653791841373</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.26213721866797</v>
+        <v>3.89269131283358</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.50568325184821</v>
+        <v>22.04143124948441</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.52061046280912</v>
+        <v>28.06952135712551</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.29577614438605</v>
+        <v>15.45666196811512</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.6333384084123</v>
+        <v>30.85123285148974</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.66783397266978</v>
+        <v>36.35888284227714</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.66679947266402</v>
+        <v>35.87801989385038</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.69552612184805</v>
+        <v>44.59227685320299</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.73770433617139</v>
+        <v>49.01472120930875</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.37413899357844</v>
+        <v>14.24518797802877</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.60197067132163</v>
+        <v>36.08222041277294</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.70937538044242</v>
+        <v>44.82379725921136</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.33729956467883</v>
+        <v>2.807673390080499</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.44018837688688</v>
+        <v>30.19959356217443</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.45774599573247</v>
+        <v>38.09956919129401</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.26438354088419</v>
+        <v>6.554329406050005</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.43834673565933</v>
+        <v>24.7063627024544</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.46182047219423</v>
+        <v>30.73778408683781</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.31124143991762</v>
+        <v>18.12152114886137</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.56056341490782</v>
+        <v>33.51959024602617</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.28582097747921</v>
+        <v>-7.79242852405967</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.29767630976676</v>
+        <v>19.59515780931726</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.40707738510088</v>
+        <v>27.49195878964169</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.25785780184726</v>
+        <v>-4.042437724234997</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.45510158711863</v>
+        <v>14.10568605394726</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.49760396301658</v>
+        <v>20.13403060250234</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.26822747234739</v>
+        <v>7.520740749782949</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.52315788668075</v>
+        <v>22.91478264177103</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.60426590412974</v>
+        <v>28.42267143821597</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.58090475296326</v>
+        <v>27.94094380762535</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.6144617783234</v>
+        <v>36.65513281379823</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.64798113586964</v>
+        <v>41.07775269375078</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.31130667912204</v>
+        <v>6.308849314572871</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.44752257057703</v>
+        <v>28.14515541808</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.68373298382471</v>
+        <v>36.88707311062298</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.29638031900167</v>
+        <v>-5.127991137093186</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.41020871103047</v>
+        <v>22.26324699168801</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.45123256911481</v>
+        <v>30.16344277858345</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.26181746753084</v>
+        <v>-1.382346961500939</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.39768000476263</v>
+        <v>16.76907011913262</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.44030479542407</v>
+        <v>22.80074588650918</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.26614080748339</v>
+        <v>10.18405244871407</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.49176182337815</v>
+        <v>25.5815924967517</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.42348370660998</v>
+        <v>25.60546643781472</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.36109740524985</v>
+        <v>25.1245120659968</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.48083909477231</v>
+        <v>33.84166484288507</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.50671720660367</v>
+        <v>38.26607882506495</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.31582872965438</v>
+        <v>3.492132591048421</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.38093060463714</v>
+        <v>25.33475543089027</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.43043178277636</v>
+        <v>34.07835206255392</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.33806116347677</v>
+        <v>-0.5429226855928668</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.40285427304024</v>
+        <v>26.85011982880998</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.51089024750074</v>
+        <v>34.75125345501387</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.26644288479098</v>
+        <v>3.205999704047503</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.30621016616659</v>
+        <v>21.35945273261452</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.35479679904878</v>
+        <v>27.39200112275195</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.27975361691567</v>
+        <v>14.77481027216313</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.4161189172363</v>
+        <v>30.17402326560604</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.55463985973348</v>
+        <v>35.6857456341079</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.41594342318119</v>
+        <v>35.20886851952629</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.58414900663585</v>
+        <v>43.9271351683383</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.59676322872811</v>
+        <v>48.35209204144327</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.31002242115888</v>
+        <v>13.57260100035241</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.39147285635593</v>
+        <v>35.41786542665592</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.47308133239352</v>
+        <v>44.16324345960142</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.55769830720388</v>
+        <v>35.23485148443127</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.5398926878907</v>
+        <v>34.75460338554696</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.62091557401277</v>
+        <v>43.47188136742899</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.62677137458877</v>
+        <v>47.89625938099404</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.43851453712695</v>
+        <v>13.12119473029022</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.58941347375364</v>
+        <v>34.96493941335645</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.55681933157896</v>
+        <v>43.70836408027948</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.40999335835146</v>
+        <v>9.084774145853903</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.456328972114</v>
+        <v>36.47878218037228</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.57869975634041</v>
+        <v>44.37985926654802</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.27129488281706</v>
+        <v>12.8354220924124</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.54588385634397</v>
+        <v>30.98977545318862</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.59011343623363</v>
+        <v>37.02223465932072</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.29921115367758</v>
+        <v>24.40502556808567</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.67509220459478</v>
+        <v>39.80502134572397</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.76404586966554</v>
+        <v>45.31664898553369</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.70376074565105</v>
+        <v>44.84047821625872</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.80405552785858</v>
+        <v>53.55887007047092</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.85267283886732</v>
+        <v>57.98379096722239</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.5230966082733</v>
+        <v>23.2031814626355</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.75550803703244</v>
+        <v>45.04956774414985</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.78796472366028</v>
+        <v>53.79477380983919</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.6395089713804</v>
+        <v>39.03015376932719</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.55084972297087</v>
+        <v>38.54991309897299</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.58469160241101</v>
+        <v>47.26721159187458</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.62636058082087</v>
+        <v>51.69166043781139</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.36854518027441</v>
+        <v>16.91619421916473</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.58605099314641</v>
+        <v>38.7603462834626</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.60106616180006</v>
+        <v>47.50381448170653</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.35119661993686</v>
+        <v>12.87961981367586</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.46563514416497</v>
+        <v>40.27388885101915</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.57208785628771</v>
+        <v>48.17503195002429</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.26595263177111</v>
+        <v>16.6311759032699</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.54103626764204</v>
+        <v>34.78583054680372</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.58025226195632</v>
+        <v>40.81836154936697</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.32257028704017</v>
+        <v>28.20088835180856</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.70076252106655</v>
+        <v>43.60115319153478</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.81665920054666</v>
+        <v>49.11283772648268</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.76415119097454</v>
+        <v>48.63667439706877</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.8440038462094</v>
+        <v>57.35508675528719</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.88657292307164</v>
+        <v>61.78007847830146</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.39529795308495</v>
+        <v>26.99906738067979</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.74092503359717</v>
+        <v>48.84586103971937</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.82286292187786</v>
+        <v>57.59111062971637</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.54818706296891</v>
+        <v>31.09239478211193</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.39644775441109</v>
+        <v>30.61128946226588</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.44910686865761</v>
+        <v>39.32852000352047</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.48125531140208</v>
+        <v>43.7531443741383</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.30777924341277</v>
+        <v>8.978308091344065</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.52551586984567</v>
+        <v>30.82173373303035</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.54527320717069</v>
+        <v>39.56554274977988</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.31977037167308</v>
+        <v>4.943255661802272</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.44603386022921</v>
+        <v>32.33684265160356</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.59011753601736</v>
+        <v>40.23820592742108</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.26611535092296</v>
+        <v>8.693799704753037</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.50918594636099</v>
+        <v>26.84783812543153</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.59850563208217</v>
+        <v>32.88062353509282</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.27212971984379</v>
+        <v>20.26271982739015</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.65078352254776</v>
+        <v>35.66245561452151</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.80071549123294</v>
+        <v>41.17437893178966</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.65502514349463</v>
+        <v>40.69735091112626</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.76858985781174</v>
+        <v>49.41569531632105</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.87227915187454</v>
+        <v>53.84086256903721</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.29640099223625</v>
+        <v>19.06048139169356</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.65797721083671</v>
+        <v>40.90654862821511</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.82411395538445</v>
+        <v>49.65213904418125</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>20.60448965502397</v>
+        <v>-5.066979122338676</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.11855749132701</v>
+        <v>22.31899764594461</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.71213161176155</v>
+        <v>30.21433147723203</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>15.66647355780709</v>
+        <v>-1.317997011592166</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.06708128218028</v>
+        <v>16.82965218761969</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.8526288324349</v>
+        <v>22.85666699867831</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.39677146293815</v>
+        <v>10.24530874324502</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.49650603067583</v>
+        <v>25.63894850920191</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.89911759888891</v>
+        <v>31.14572565630501</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.72953989069987</v>
+        <v>30.6642366959285</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.52128806558234</v>
+        <v>39.37791730806192</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.77475787287485</v>
+        <v>43.79969163714101</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.83310398800851</v>
+        <v>9.033290125681237</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.77183032992493</v>
+        <v>30.8686460531725</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.20845478412893</v>
+        <v>39.60907611066774</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.92548562012311</v>
+        <v>-2.409120320607808</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.08530205930272</v>
+        <v>24.98050768641192</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.56641580166765</v>
+        <v>32.87923580492067</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>15.64081116259204</v>
+        <v>1.335515069383195</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.16107709366426</v>
+        <v>19.48645703852255</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.60727129388628</v>
+        <v>25.51680255048395</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.71956481603958</v>
+        <v>12.90204130951306</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.23522026778061</v>
+        <v>28.29917869696807</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.81846270857457</v>
+        <v>4.556146762089288</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.79452995936373</v>
+        <v>31.94308885158127</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.76302946087556</v>
+        <v>39.83836608563605</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16.00341405956132</v>
+        <v>8.306853819061889</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.84762161568224</v>
+        <v>26.45540316477174</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.73924016331901</v>
+        <v>32.48232873063559</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>17.48724270518233</v>
+        <v>19.8709521987005</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.0915988462435</v>
+        <v>35.26537457632971</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.02375129545417</v>
+        <v>40.77205695134059</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.02362276427199</v>
+        <v>40.29127436965099</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.99826106566384</v>
+        <v>49.00508018021516</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.40631270714452</v>
+        <v>53.42681851004274</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.00394730877296</v>
+        <v>18.65929874206951</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.85978296400463</v>
+        <v>40.49577628838371</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.20687333126436</v>
+        <v>49.23603434130429</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.0730343087443</v>
+        <v>7.215882808285318</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.99268874957898</v>
+        <v>34.60647622408091</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.2953241018196</v>
+        <v>42.50514781639312</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>15.66622333440673</v>
+        <v>10.96224330528334</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.2829371791391</v>
+        <v>29.1140855018523</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.52128353774979</v>
+        <v>35.14434184744233</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15.62800771093672</v>
+        <v>22.52956234036266</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.60363068832426</v>
+        <v>37.92748241975973</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>16.96173817021833</v>
+        <v>8.348908255357305</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.43321167782099</v>
+        <v>35.73611129251925</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.5157707061869</v>
+        <v>43.63145453184258</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.72674201545977</v>
+        <v>12.10052323206914</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.22163758767516</v>
+        <v>30.24937379775453</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.21411596299874</v>
+        <v>36.27637114962103</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>15.98961276889541</v>
+        <v>23.6647304998843</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.51917010206479</v>
+        <v>39.05942188263965</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.54460823798399</v>
+        <v>44.56616114661598</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.26292279890142</v>
+        <v>44.08538614267697</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.87511330242426</v>
+        <v>52.79921247695371</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.98736777850473</v>
+        <v>57.22102161456498</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.36070045133036</v>
+        <v>22.45310027919142</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.30263547083579</v>
+        <v>44.28998514563013</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.10961746113006</v>
+        <v>53.03028670868549</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.69606476081586</v>
+        <v>11.00929437105789</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.69928935171674</v>
+        <v>38.40014874830071</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.08173909448957</v>
+        <v>46.29888635903684</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.59528696540895</v>
+        <v>14.75656284931349</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.83853039792503</v>
+        <v>32.9087062828179</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.75212132982255</v>
+        <v>38.93903442688863</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>18.56723002284199</v>
+        <v>26.32399080424752</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.52931012402809</v>
+        <v>41.72217990352171</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>15.80451207106129</v>
+        <v>0.4156941168972885</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.18881687765604</v>
+        <v>27.80221523555453</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.40787239560131</v>
+        <v>35.69777867007612</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>14.59403794374715</v>
+        <v>4.166297530948118</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>17.46876256081466</v>
+        <v>22.31453198490057</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.41460947146255</v>
+        <v>28.34178376582101</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>14.85125723044764</v>
+        <v>15.72971268594951</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.13571431752266</v>
+        <v>31.12387511936688</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.73705543255925</v>
+        <v>36.6308531753855</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.04642286403017</v>
+        <v>36.1492135731212</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.54491249861088</v>
+        <v>44.86297195563601</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.23479164577478</v>
+        <v>49.28495660255705</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.38065369599007</v>
+        <v>14.5176650569256</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.48156992804067</v>
+        <v>36.35382365184286</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.09444707029519</v>
+        <v>45.0944660330813</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.36211155839709</v>
+        <v>3.074533249551923</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.69446519008106</v>
+        <v>30.46470564087612</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.15497059087817</v>
+        <v>38.36366340020392</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>15.60058232908635</v>
+        <v>6.820790004360237</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.01384796312099</v>
+        <v>24.97231726899942</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.58838914350781</v>
+        <v>31.00289978417722</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>15.74054402255147</v>
+        <v>18.38742569529144</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.59298102655314</v>
+        <v>33.78508578763571</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.35013409148388</v>
+        <v>33.80886886659938</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.43494851333705</v>
+        <v>33.32800265198399</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.44193594833518</v>
+        <v>42.04472441317513</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.95494615124196</v>
+        <v>46.46850295357116</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.76896003092307</v>
+        <v>11.69616951604509</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.03124376152824</v>
+        <v>33.53864400621332</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.27670442707544</v>
+        <v>42.28096501780318</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.10117136468217</v>
+        <v>7.659173174304573</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.04191540753978</v>
+        <v>35.05114974957816</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.10077154315198</v>
+        <v>42.95104527929222</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.7404441155484</v>
+        <v>11.40870779355511</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.97554911199997</v>
+        <v>29.56227078739962</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.62800589893505</v>
+        <v>35.59372587679378</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.47877187158661</v>
+        <v>22.97775446537891</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.23724141626242</v>
+        <v>38.37708732304169</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.96822059799054</v>
+        <v>43.88789846863587</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.19598327032535</v>
+        <v>43.4111090810443</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.81289812599591</v>
+        <v>52.12894462653254</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>39.28711522357963</v>
+        <v>56.5532659713739</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.24593481292384</v>
+        <v>21.77538830160576</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.78366483549592</v>
+        <v>43.62050414555178</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.79433531077572</v>
+        <v>52.36460633861863</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.66015774400165</v>
+        <v>43.43707788178689</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.27238881803263</v>
+        <v>42.95691789588774</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.94817441269023</v>
+        <v>51.67376485443721</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.26432203994325</v>
+        <v>56.09750742026269</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.88266719638068</v>
+        <v>21.32405567823698</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.03014065028859</v>
+        <v>43.16765191257083</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.68948461263827</v>
+        <v>51.90980096475052</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.59911518086194</v>
+        <v>17.28569410191394</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.81853152108762</v>
+        <v>21.03695410112757</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.78889481371242</v>
+        <v>39.19141734778488</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.64383497325624</v>
+        <v>45.22278324521552</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.66651182739672</v>
+        <v>32.60679360118822</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.17416697081011</v>
+        <v>48.00690917086128</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.77745021659733</v>
+        <v>53.51762558425959</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.60073730750062</v>
+        <v>53.04154249704119</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.29613719819746</v>
+        <v>61.75950324037412</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.93038401950869</v>
+        <v>66.18378860292502</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.03289167480807</v>
+        <v>31.40479258238408</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>48.65919318928598</v>
+        <v>53.25103018257518</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>51.29916995576163</v>
+        <v>61.99496041351928</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.27183818717717</v>
+        <v>47.2318322668947</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.7266799269156</v>
+        <v>46.75167973148656</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.93725479256022</v>
+        <v>55.4685471969657</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.090333393689</v>
+        <v>59.8923605824174</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.09720508724404</v>
+        <v>25.11850732440395</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.6490451945585</v>
+        <v>46.9625108909603</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.68990875221591</v>
+        <v>55.70470346511821</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.59856510432428</v>
+        <v>21.07999194251956</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.11708876103311</v>
+        <v>48.47319491399311</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.97910948072631</v>
+        <v>56.37309989624306</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.54457070726206</v>
+        <v>24.83215999574294</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.25648100021609</v>
+        <v>42.98692448351962</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.26005242395287</v>
+        <v>49.01836216688856</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.83807487264259</v>
+        <v>36.40210844085813</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.31837437605171</v>
+        <v>51.80249303439702</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.3702250112102</v>
+        <v>57.31326633442042</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>48.61982201494069</v>
+        <v>56.8371907096023</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.65443871379802</v>
+        <v>65.55517195275424</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>53.17424984915665</v>
+        <v>69.979528128908</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.05003106749567</v>
+        <v>35.2001305668265</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>48.54926590223001</v>
+        <v>57.04677549542693</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>54.36215570198082</v>
+        <v>65.79074924130659</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.65683679565921</v>
+        <v>39.29497689936058</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.68188302284954</v>
+        <v>38.81395979867001</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.26843199248964</v>
+        <v>47.53075931345496</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.84319578420588</v>
+        <v>51.95474820910705</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.19396083084475</v>
+        <v>17.1815248245655</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.26925974257585</v>
+        <v>39.02480202816061</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.22556556028263</v>
+        <v>47.76733539271937</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.22796179784091</v>
+        <v>13.14453132665132</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.53042540324965</v>
+        <v>40.53705230782704</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.9334160846553</v>
+        <v>48.43717745758342</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.75137175866027</v>
+        <v>16.89568745041528</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.75945132170164</v>
+        <v>35.04983576249835</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.96490591211179</v>
+        <v>41.0815278408502</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.2467208797644</v>
+        <v>28.46484363774063</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>42.60708552315622</v>
+        <v>43.86469922106666</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>49.28311032620746</v>
+        <v>49.37571128995832</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.47189238991401</v>
+        <v>48.89877105770007</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>51.45984460390039</v>
+        <v>57.61668434904358</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55.17885939790789</v>
+        <v>62.04121604039291</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.75969103194431</v>
+        <v>27.26244833599062</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.7028820793791</v>
+        <v>49.10836690211535</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>55.27562262361648</v>
+        <v>57.85268144587771</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.67643461365895</v>
+        <v>-4.767467965514452</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.41896709009467</v>
+        <v>22.62007340960965</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.70808346372384</v>
+        <v>30.51562451787131</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.60967313114345</v>
+        <v>-1.019465166544119</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.60867821328053</v>
+        <v>17.12933591925482</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.83405652432891</v>
+        <v>23.1564194975946</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.13750505126167</v>
+        <v>10.54482025916674</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.01178870719962</v>
+        <v>25.93945859178668</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.78651418162815</v>
+        <v>31.44631916935909</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.92211771676012</v>
+        <v>30.9646763456408</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.33067566059934</v>
+        <v>39.67880203183542</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.0809424332479</v>
+        <v>44.10076832730773</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.59856936069238</v>
+        <v>9.332213552465664</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.66959430742019</v>
+        <v>31.16917278415078</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.18611551956597</v>
+        <v>39.90977183531778</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.54472168396395</v>
+        <v>-2.11184737366737</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.73049636242138</v>
+        <v>25.27934532969336</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.31190147931817</v>
+        <v>33.17829098713391</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.55740372931444</v>
+        <v>1.63180854357849</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.47105024482401</v>
+        <v>19.78390247516508</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.33643172322623</v>
+        <v>25.81431701657199</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.12720407907351</v>
+        <v>13.19931447401088</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.69103592238964</v>
+        <v>28.59745049954633</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.91025623125428</v>
+        <v>4.856082983269761</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.49907829085759</v>
+        <v>32.24458972935805</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.60438290940905</v>
+        <v>40.14008423396025</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.80604103779139</v>
+        <v>8.605810796694431</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.90177201414554</v>
+        <v>26.75551207798437</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.11416429374928</v>
+        <v>32.78250640186606</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.88055814106052</v>
+        <v>20.17088889785284</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.38781133623343</v>
+        <v>35.56630988357928</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.64635032269242</v>
+        <v>41.07307568120952</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.48012896494487</v>
+        <v>40.59213927726695</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.11311761083201</v>
+        <v>49.30639017227135</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.17359373082833</v>
+        <v>53.72832046234488</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.61011585630296</v>
+        <v>18.95864737557419</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.58724302866524</v>
+        <v>40.79672828834147</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.02604106767757</v>
+        <v>49.53715532321361</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.30686405434493</v>
+        <v>7.51358089988334</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.41524982205854</v>
+        <v>34.9057390618474</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.45451360184385</v>
+        <v>42.80462818682624</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.57013672171702</v>
+        <v>11.25896199331921</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.10730096482071</v>
+        <v>29.4119562008457</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.27606293310088</v>
+        <v>35.44228156681108</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.6111029678913</v>
+        <v>22.82726076858423</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.25340222479406</v>
+        <v>38.22617952746886</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>23.73432619495675</v>
+        <v>8.649009110561014</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.22328440334442</v>
+        <v>36.03777681524697</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.32220808202417</v>
+        <v>43.93333732959071</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.22729392358392</v>
+        <v>12.39964489950139</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.85614128951091</v>
+        <v>30.54964741370954</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.96086923397661</v>
+        <v>36.57671352856848</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.14782165565672</v>
+        <v>23.96483188923527</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.86617284242903</v>
+        <v>39.36052189114174</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.91462659033485</v>
+        <v>44.86734458258833</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.55157838994421</v>
+        <v>44.3864157604594</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.01510547127145</v>
+        <v>53.10068718211814</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.97908257117277</v>
+        <v>57.5226882835217</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.7844409146611</v>
+        <v>22.7526136122764</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.09665947772961</v>
+        <v>44.59110186528302</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.40032108108732</v>
+        <v>53.33157241170296</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.63259749570462</v>
+        <v>11.30715712823111</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.4379092160401</v>
+        <v>38.69957626258226</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.30621580873575</v>
+        <v>46.59853141038754</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.54668152677264</v>
+        <v>15.05344625843874</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.43249167707949</v>
+        <v>33.20674171589589</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.87803419369748</v>
+        <v>39.23713888537294</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.11406749089475</v>
+        <v>26.62185395425958</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.42635865749205</v>
+        <v>42.02104174393811</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.97884720711157</v>
+        <v>0.7154315892045311</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.76662022537649</v>
+        <v>28.10351733717313</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.42036792285016</v>
+        <v>35.99929806266415</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.13580162992019</v>
+        <v>4.465055790879564</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.67743068301586</v>
+        <v>22.61444215685596</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.80206606192584</v>
+        <v>28.64176271944861</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.35158661433502</v>
+        <v>16.02945061083769</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.96781663809674</v>
+        <v>31.42461163254326</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.93178064519823</v>
+        <v>36.93167313276992</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.05696950969971</v>
+        <v>36.44987966626651</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.92867357433466</v>
+        <v>45.16408313010892</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.98939495665908</v>
+        <v>49.58625975455313</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.91312062152208</v>
+        <v>14.81681490591304</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.5129404570439</v>
+        <v>36.65457684553395</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.10083286432631</v>
+        <v>45.39538822770818</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.38432171938909</v>
+        <v>3.372032545482984</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.27400375331982</v>
+        <v>30.7637696558851</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.65824426360617</v>
+        <v>38.6629449682123</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.5157485247452</v>
+        <v>7.117309928181971</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.92124259704013</v>
+        <v>25.26998918031986</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.38709562758402</v>
+        <v>31.30064073952839</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.62961115597231</v>
+        <v>18.68492530289292</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.70859135316138</v>
+        <v>34.0835840550899</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.32868228665808</v>
+        <v>34.10722434713843</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.6881691133035</v>
+        <v>33.62620439614422</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.23585720843904</v>
+        <v>42.34337131071131</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.19222184851107</v>
+        <v>46.76734197948862</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.6018637754402</v>
+        <v>11.99285509619883</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.00455376319103</v>
+        <v>33.83693310239018</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.05575001619763</v>
+        <v>42.57942339536159</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.04239132904013</v>
+        <v>7.95709136812015</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.88699879942585</v>
+        <v>35.35063277943938</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.29070511814006</v>
+        <v>43.25074587876533</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.62025809953881</v>
+        <v>11.70564668700151</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.47344236480253</v>
+        <v>29.86036181482691</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.5437797959032</v>
+        <v>35.89188595572411</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.05361892574101</v>
+        <v>23.2756732410286</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.41651188786784</v>
+        <v>38.67600488170469</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.04394220722065</v>
+        <v>44.18689972289748</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.97669004681294</v>
+        <v>43.70995681485739</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.62114519758101</v>
+        <v>52.42823758482633</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.6154981785405</v>
+        <v>56.85275106468511</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.88514524261782</v>
+        <v>22.07271969357977</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.45163147896331</v>
+        <v>43.91943922340774</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.15156228031391</v>
+        <v>52.66371071703817</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.81865080963495</v>
+        <v>43.73585866001476</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.86066554255853</v>
+        <v>43.25554497891018</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.92855562484092</v>
+        <v>51.97283710107833</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.92078615934089</v>
+        <v>56.39677178936428</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.33365912304874</v>
+        <v>21.621166545605</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.66922186454496</v>
+        <v>43.46636635845222</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.76440234856852</v>
+        <v>52.20868468052846</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.41719345319994</v>
+        <v>17.58403751920948</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.2330781393274</v>
+        <v>44.97854441068138</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.48248951585637</v>
+        <v>52.87860095344935</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.67720058906701</v>
+        <v>21.33431828678285</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.01783035896563</v>
+        <v>39.48993371604173</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.69323732664319</v>
+        <v>45.52136865588353</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.47572459389507</v>
+        <v>32.90513771924908</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.49378815868076</v>
+        <v>48.30625211323401</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>37.75069369451784</v>
+        <v>53.81705221473386</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>37.74092064657064</v>
+        <v>53.34081564855741</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.13850717630228</v>
+        <v>62.05922162654555</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.80091852631448</v>
+        <v>66.48369911803026</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.9247658790959</v>
+        <v>31.70254934005267</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>39.57611507360252</v>
+        <v>53.55039068849307</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.68304395346638</v>
+        <v>62.29449020856511</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.75598353292994</v>
+        <v>47.53077778239675</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.93506019997194</v>
+        <v>47.05047155619458</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.12354514601513</v>
+        <v>55.76778418809171</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.43216261464447</v>
+        <v>60.19178969943427</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.67172127257094</v>
+        <v>25.41578292307124</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.47652514263932</v>
+        <v>47.26139008803638</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.79612104054986</v>
+        <v>56.00375193330957</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.00348172737022</v>
+        <v>21.37850007191925</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.61382961167821</v>
+        <v>48.77326793993156</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.07217496639425</v>
+        <v>56.67339048997827</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.5452614941255</v>
+        <v>25.12968894911002</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.84817735668014</v>
+        <v>43.28560563252439</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.35783677248214</v>
+        <v>49.31711236306741</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.21234488160445</v>
+        <v>36.70061732676324</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.67094457167035</v>
+        <v>52.10200075587069</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.78825933393122</v>
+        <v>57.61285774858256</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>39.76551385728568</v>
+        <v>57.13662864909226</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.23454260258493</v>
+        <v>65.85505512966883</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.07157783140875</v>
+        <v>70.27960343828251</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.18608600953938</v>
+        <v>35.49805210216961</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.37456163057161</v>
+        <v>57.3463007990339</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.00466957344172</v>
+        <v>66.09044383515574</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.67679669793826</v>
+        <v>39.59355885861079</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.74938704459504</v>
+        <v>39.11238802042102</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.68403473240071</v>
+        <v>47.82963269592859</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.02133697435067</v>
+        <v>52.25381373119787</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.32260078409011</v>
+        <v>17.47843686116098</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.3901318986641</v>
+        <v>39.32331762139872</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.97145845091275</v>
+        <v>48.06602027485282</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.09639455018227</v>
+        <v>13.44267595942906</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.16673587181728</v>
+        <v>40.83676179922249</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.81569387348077</v>
+        <v>48.73710453263165</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.61675548486625</v>
+        <v>17.19285288278424</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.11092913578022</v>
+        <v>35.34815335378779</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.42150743158565</v>
+        <v>41.3799144981656</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.82069201344781</v>
+        <v>28.76298894581216</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.13348549241421</v>
+        <v>44.16384333388841</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.66567725164699</v>
+        <v>49.67493911226553</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.7821192541783</v>
+        <v>49.19784535904854</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.39028155820729</v>
+        <v>57.91620388194714</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.63229476047246</v>
+        <v>62.34092771945065</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.29517208819578</v>
+        <v>27.56000627384846</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.90026267214416</v>
+        <v>49.40752856640655</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.98122460318279</v>
+        <v>58.15201241807837</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.79415013899794</v>
+        <v>-13.11837290190611</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.21631158840804</v>
+        <v>14.26890921689382</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.70142616859399</v>
+        <v>22.16448446629831</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.81733182575045</v>
+        <v>-9.370938164869454</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.38877137810788</v>
+        <v>8.777485698373443</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.06450735391479</v>
+        <v>14.80458762654543</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.70639989902542</v>
+        <v>2.193005886301325</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.12373030223636</v>
+        <v>17.58725916656535</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.96493856224982</v>
+        <v>23.0941605202021</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.06298409037675</v>
+        <v>22.61281610555297</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.39932623307597</v>
+        <v>31.32676392805265</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.15211072965054</v>
+        <v>35.74878462578341</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.99107401748144</v>
+        <v>0.980940505264261</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.78279834611201</v>
+        <v>22.81759815115744</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.49641659734523</v>
+        <v>31.55829210307401</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.15905128334566</v>
+        <v>-10.46196282332845</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.82653132319559</v>
+        <v>16.92897074557495</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.7364357018888</v>
+        <v>24.82794059063362</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.49286628958316</v>
+        <v>-6.718875002930627</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.33576760448154</v>
+        <v>11.43284182802281</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.16211624480594</v>
+        <v>17.4632747738432</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>22.04192601745176</v>
+        <v>4.848289641160722</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.26010738343087</v>
+        <v>20.24604074623416</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.94900062516661</v>
+        <v>-3.4948330808521</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.12218449529057</v>
+        <v>23.8934144107782</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.39919305299947</v>
+        <v>31.78893305691578</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.00783717965169</v>
+        <v>0.2543266861686284</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.84107039366917</v>
+        <v>18.40365074450894</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.84374508943447</v>
+        <v>24.43066341921032</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.0142798148582</v>
+        <v>11.81906341565038</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.05614221095277</v>
+        <v>27.21409934819157</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.9915281222516</v>
+        <v>32.72090592368865</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.93071038892722</v>
+        <v>32.24026794326564</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.9030398554013</v>
+        <v>40.95434097308647</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.60902974525479</v>
+        <v>45.37632566637798</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.85780726554399</v>
+        <v>10.60736323525795</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.62687450963764</v>
+        <v>32.44514256477977</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.32481026461546</v>
+        <v>41.18566450140305</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.85734311710907</v>
+        <v>-0.8365456261361537</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.83193095182255</v>
+        <v>26.55535340327096</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.85419710639454</v>
+        <v>34.45426671605846</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.55223710477461</v>
+        <v>2.908267385389326</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.61971513224709</v>
+        <v>21.0608844920164</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.23129252547468</v>
+        <v>27.09122826331908</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.66221211430078</v>
+        <v>14.47622487741627</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.22177529659545</v>
+        <v>29.87475871508754</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.10541628721365</v>
+        <v>0.2981050507115874</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.62876904346646</v>
+        <v>27.68661350323557</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.46016600243108</v>
+        <v>35.58219816171244</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.52826825114551</v>
+        <v>4.048172803218581</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.53110896864524</v>
+        <v>22.19779809666536</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.10361812521732</v>
+        <v>28.22488256502335</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.97712052653314</v>
+        <v>15.61301842310742</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.3953216330794</v>
+        <v>31.00832337370823</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.44474056713889</v>
+        <v>36.51518684567419</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.18742954341371</v>
+        <v>36.03455644617999</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.88237130885219</v>
+        <v>44.74865000415788</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.4114935938168</v>
+        <v>49.17070550919802</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.84494788460877</v>
+        <v>14.40134148953907</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.19973539388461</v>
+        <v>36.23952816257385</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.09385246484455</v>
+        <v>44.98009361430128</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.51158330951054</v>
+        <v>2.957042623539355</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.2664505845984</v>
+        <v>30.34920262772052</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.80929311173006</v>
+        <v>38.24818196601213</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.6094593249965</v>
+        <v>6.702763682115819</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.31738643298519</v>
+        <v>24.85568204107598</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.69893359455907</v>
+        <v>30.88609761854334</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.54287131843929</v>
+        <v>18.27083009646539</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.09858567941738</v>
+        <v>33.66963296688245</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.57762524711386</v>
+        <v>-7.635511302175797</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.35518712920612</v>
+        <v>19.75231519197907</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.69708384985667</v>
+        <v>27.64812006493118</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.27662644529277</v>
+        <v>-3.886455148604778</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.49049206402406</v>
+        <v>14.26255399719198</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.58224359545445</v>
+        <v>20.28989291604787</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.68466640894711</v>
+        <v>7.677598297255731</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.27042901764754</v>
+        <v>23.07237426841825</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.45422024348132</v>
+        <v>28.57947655130501</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.88797832837256</v>
+        <v>28.09798149076564</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.89397808727906</v>
+        <v>36.81200709290273</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.73790538810922</v>
+        <v>41.23423812138152</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.05327407915177</v>
+        <v>6.465503921477552</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.12690699988676</v>
+        <v>28.30296427993177</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.35765127730222</v>
+        <v>37.04387057238399</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.97805080371899</v>
+        <v>-4.97812082859819</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.80031221134648</v>
+        <v>22.4133571497422</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.57151451981995</v>
+        <v>30.31255665591461</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.46378217124149</v>
+        <v>-1.233411529516598</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.28638503637411</v>
+        <v>16.91889062443353</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.04474290751353</v>
+        <v>22.94956059446158</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.61435459786649</v>
+        <v>10.3338625595185</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.67973381282718</v>
+        <v>25.73213639277789</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.13234306117446</v>
+        <v>25.75585540446777</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.05487740068758</v>
+        <v>25.27513373051604</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.92464646231688</v>
+        <v>33.99212283429007</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.60577597348874</v>
+        <v>38.41614791236965</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.29147150582837</v>
+        <v>3.642371461612147</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.65259754385744</v>
+        <v>25.48614805592492</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.30111331386866</v>
+        <v>34.22873322831403</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.60842512395752</v>
+        <v>-0.3912987295359294</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.82465197398399</v>
+        <v>27.0019836040964</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.48422330873791</v>
+        <v>34.90212086179419</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.69391991765481</v>
+        <v>3.356688624327507</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.8037875309519</v>
+        <v>21.51102670750949</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.16944415887503</v>
+        <v>27.54256922908475</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.26736714175581</v>
+        <v>14.92637398711499</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.3280191996873</v>
+        <v>30.32632075425501</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.06347905087711</v>
+        <v>35.83725638354169</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.84008190197666</v>
+        <v>35.36061178122374</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.68051313029462</v>
+        <v>44.07871474480807</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.51121862003451</v>
+        <v>48.50328261400956</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.97097848344314</v>
+        <v>13.72396158588312</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.67112327649357</v>
+        <v>35.57037973668504</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.43559353364595</v>
+        <v>44.31474609978763</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.89592788588298</v>
+        <v>35.38447865992204</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.80638906510834</v>
+        <v>34.90446327033364</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.5078201799835</v>
+        <v>43.62157758008495</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.59959171671139</v>
+        <v>48.04556667823557</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.54921299637966</v>
+        <v>13.2706718689333</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.29336710697765</v>
+        <v>35.1155702724691</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.36095438870626</v>
+        <v>43.85798347486447</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.09588921328936</v>
+        <v>9.235636393337263</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.94809248908856</v>
+        <v>36.62988420926719</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.82868613537455</v>
+        <v>44.52996491075295</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.86033118303481</v>
+        <v>12.98534921137629</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.39681083804943</v>
+        <v>31.14058759576348</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.6400815743328</v>
+        <v>37.17204091709961</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.7758299317597</v>
+        <v>24.55582745564927</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.44160225618627</v>
+        <v>39.95655697538247</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.91137856210344</v>
+        <v>45.46739786667594</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.29784972767858</v>
+        <v>44.9914596199683</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.5248879372181</v>
+        <v>53.70968779020178</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.73345390089705</v>
+        <v>58.13421967172657</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.92836747207065</v>
+        <v>23.35378023893692</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>39.76621063772394</v>
+        <v>45.20132021104429</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.61589052814791</v>
+        <v>53.94551460144591</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.02306205648542</v>
+        <v>39.17940982056236</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.97823618019951</v>
+        <v>38.69940188485113</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.40803161698012</v>
+        <v>47.41653670582572</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.64967532481067</v>
+        <v>51.84059662777953</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.59385148770431</v>
+        <v>17.06530028112799</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.38807748068614</v>
+        <v>38.91060604004794</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.23222388467773</v>
+        <v>47.65306276956098</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.07525854233691</v>
+        <v>13.03011098297999</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.96712735387485</v>
+        <v>40.42461977752465</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.7583048594806</v>
+        <v>48.32476648895614</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.6957391185768</v>
+        <v>16.78073192094066</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.82454617995116</v>
+        <v>34.93627156171887</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.78783902122626</v>
+        <v>40.96779667649504</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.92938820103311</v>
+        <v>28.35131911201849</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.23291951196477</v>
+        <v>43.75231766877063</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.09330944869689</v>
+        <v>49.26321545436976</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>40.09790121232334</v>
+        <v>48.78728467332418</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.48302329727375</v>
+        <v>57.50553334761368</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.19207688766275</v>
+        <v>61.93013604678551</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.22146911774546</v>
+        <v>27.14929505144143</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.18635496713463</v>
+        <v>48.99724237493912</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>41.6139918989531</v>
+        <v>57.7414802854379</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.0872234219681</v>
+        <v>31.24215201359995</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.5148211562106</v>
+        <v>30.76127944998168</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.32362072619652</v>
+        <v>39.47834631630839</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.42665298224721</v>
+        <v>43.90258176257818</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.10287434675107</v>
+        <v>9.127915319361609</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.97720638911359</v>
+        <v>30.97249467250676</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.32232735689318</v>
+        <v>39.7152922148173</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.80718049069334</v>
+        <v>5.094247972377634</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.1746656804139</v>
+        <v>32.48807473692433</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.05244118568481</v>
+        <v>40.38844163497744</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>21.70413475816023</v>
+        <v>8.843856944356862</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.09115038008939</v>
+        <v>26.99878037314626</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.3376194766125</v>
+        <v>33.03055990463635</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.8851341828132</v>
+        <v>20.41365181676681</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.39628983820868</v>
+        <v>35.81412133283733</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.55341293258946</v>
+        <v>41.32525790590672</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.1942582448031</v>
+        <v>40.84846245524933</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.61792342026896</v>
+        <v>49.56664317373578</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.40004970987131</v>
+        <v>53.99142140219193</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.7260042956379</v>
+        <v>19.21121029470239</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.34998834660726</v>
+        <v>41.05843121259115</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>41.18745102311568</v>
+        <v>49.80300994330311</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.42998802146165</v>
+        <v>-2.53425565801761</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.45693047451531</v>
+        <v>24.85493413676888</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.47412975215001</v>
+        <v>32.75185514568854</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.38604076274932</v>
+        <v>1.215288540175738</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.42431330003848</v>
+        <v>19.36476082146295</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.43281378125603</v>
+        <v>25.39318310288151</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.40445955904487</v>
+        <v>12.77979186873565</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.45486488306289</v>
+        <v>28.17503260217304</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.4670397361053</v>
+        <v>33.68302390607097</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.43273721690726</v>
+        <v>33.20113021676651</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.44548844633145</v>
+        <v>41.9159217411849</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.44760141884336</v>
+        <v>46.33848865501672</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.43698967516402</v>
+        <v>11.56766431594044</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.43768106594082</v>
+        <v>33.40538957421485</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.46968543920447</v>
+        <v>42.14749906098872</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.40295258821891</v>
+        <v>0.1283327627084141</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.42542343013063</v>
+        <v>27.52117447344519</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.45902955682266</v>
+        <v>35.42149030401357</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.37643987943142</v>
+        <v>3.87352996111294</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.38009368175354</v>
+        <v>22.0262956449317</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.38321302788453</v>
+        <v>28.05804916038234</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.38144610316447</v>
+        <v>15.44125428980898</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.38873682189189</v>
+        <v>30.83999330221924</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.4411762147583</v>
+        <v>7.09049618710414</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.4648093770514</v>
+        <v>34.48065143815872</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.48263789361826</v>
+        <v>42.37751585484808</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.3861054284943</v>
+        <v>10.84176558241929</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.46077901495037</v>
+        <v>28.99213813392034</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.45849428848301</v>
+        <v>35.02047117182941</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.40673224769739</v>
+        <v>22.40706164745281</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.50825233695016</v>
+        <v>37.80308510349847</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.51015951260686</v>
+        <v>43.31098163236949</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.52759586056153</v>
+        <v>42.82979438779297</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.54566854108506</v>
+        <v>51.54471112616513</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.5479308750874</v>
+        <v>55.96724204199212</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.50758589763148</v>
+        <v>21.19529928336364</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.55642029918711</v>
+        <v>43.03414631425609</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.55838736289727</v>
+        <v>51.77608378295419</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.41479043440615</v>
+        <v>9.754962151185186</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.44307468999681</v>
+        <v>37.14876940575347</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.45333356978874</v>
+        <v>45.0490287152784</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.37747134270109</v>
+        <v>13.5018847079232</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.42008322761828</v>
+        <v>31.65555074285796</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.43043522954972</v>
+        <v>37.68721509363196</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.3798801783926</v>
+        <v>25.07040194308003</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.46242287105095</v>
+        <v>40.46992375829588</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.42829866788934</v>
+        <v>10.88390238945523</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.46743398969785</v>
+        <v>38.27431863178664</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.49975338942502</v>
+        <v>46.17124906435926</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.38349018648263</v>
+        <v>14.63607982701605</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.45311553144731</v>
+        <v>32.78675364758102</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.47339190233911</v>
+        <v>38.81515848314895</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.4156277256956</v>
+        <v>26.20148480673085</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.52881817349127</v>
+        <v>41.59777731246164</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.53072813350743</v>
+        <v>47.10573073887066</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.52434204852279</v>
+        <v>46.62455105290407</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.53697476448248</v>
+        <v>55.33948831884074</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.54579270642693</v>
+        <v>59.76209005594696</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.47857804077846</v>
+        <v>24.98974566826395</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.56848807380969</v>
+        <v>46.82900008049479</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.58807224568776</v>
+        <v>55.57098106831167</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.41467421064107</v>
+        <v>13.54901850276748</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.44087519564763</v>
+        <v>40.94308676237326</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.45735088722145</v>
+        <v>48.84341210101765</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.38049951578504</v>
+        <v>17.29684916307226</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.4087238365555</v>
+        <v>35.45081648400004</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.43574888400797</v>
+        <v>41.48255264501917</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.40394321496286</v>
+        <v>28.86547534448768</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.46441764308632</v>
+        <v>44.26526622437792</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.41031555782905</v>
+        <v>2.949398438758198</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.4198195581288</v>
+        <v>30.33913267226207</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.44667301268341</v>
+        <v>38.23628331969714</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.37877717647382</v>
+        <v>6.700564154881153</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.4255219256871</v>
+        <v>24.85062178482373</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.46188120677528</v>
+        <v>30.87928107312645</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.39028249219193</v>
+        <v>18.2651769202454</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.45033788997132</v>
+        <v>33.66094040671</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.50335936467416</v>
+        <v>39.16913264957658</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.43889653582176</v>
+        <v>38.68708825688249</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.44953415191296</v>
+        <v>47.40195756435527</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.48071563328298</v>
+        <v>51.82473483328273</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.42533087454823</v>
+        <v>17.0530203278362</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.49056933695726</v>
+        <v>38.89154837167861</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.56837260419464</v>
+        <v>47.63387021859116</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.39160992612276</v>
+        <v>5.612967320526213</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.41685510831735</v>
+        <v>33.00635350376173</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.45112414529843</v>
+        <v>40.90689901069415</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.37734810986084</v>
+        <v>9.359786098924378</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.40821277128608</v>
+        <v>27.51313717200641</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.44392674754606</v>
+        <v>33.54512772776231</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.37900555443055</v>
+        <v>20.92761991478678</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.43777094564709</v>
+        <v>36.32688171767508</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.4023302166571</v>
+        <v>36.35089808807915</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.39002025314457</v>
+        <v>35.86962698979006</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.42967730605153</v>
+        <v>44.58746017909904</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.43302760487907</v>
+        <v>49.01203161342245</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.38102655784157</v>
+        <v>14.23527410611986</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.38870318982976</v>
+        <v>36.08011914360863</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.39633616611686</v>
+        <v>44.82411990868367</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.42057919157601</v>
+        <v>10.19701750955109</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.44244288112517</v>
+        <v>37.59220808615261</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.47488984340016</v>
+        <v>45.49369146669825</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.38203496642697</v>
+        <v>13.94711462575539</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.38349793128658</v>
+        <v>32.10250166148434</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.38968732306156</v>
+        <v>38.13536487843534</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.38844515031869</v>
+        <v>25.51735960209875</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.40421576481644</v>
+        <v>40.91829435545959</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.44294346792042</v>
+        <v>46.43032024309947</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.41221657916919</v>
+        <v>45.95312662828736</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.48363390616956</v>
+        <v>54.67207370557516</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.46533997214956</v>
+        <v>59.09718803293892</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.38437191562054</v>
+        <v>24.31488558911873</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.40051023529311</v>
+        <v>46.16237226926741</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.40867949799589</v>
+        <v>54.9081544952593</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.48418359504901</v>
+        <v>45.98073383363364</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.46683440229974</v>
+        <v>45.50016903025575</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.52290594699814</v>
+        <v>54.21812743231693</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.53381297670764</v>
+        <v>58.64266289340027</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.43125065853541</v>
+        <v>23.86478691823915</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.48636749831381</v>
+        <v>45.71075385378573</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.48432187013139</v>
+        <v>54.45458264607807</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.43282813407204</v>
+        <v>19.82516491723279</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.47001550230466</v>
+        <v>47.22132105919833</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.53029132452341</v>
+        <v>55.12274789450227</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.38640386323478</v>
+        <v>23.57698766419221</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.47834669008625</v>
+        <v>41.73327507625733</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.50156064428499</v>
+        <v>47.76604910289213</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.4024579771955</v>
+        <v>35.14802558033877</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.54528243042686</v>
+        <v>50.54974315660787</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.60709088308156</v>
+        <v>56.06167430909535</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.5691219131838</v>
+        <v>55.58518706080942</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.63600438570415</v>
+        <v>64.30425935131645</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.66647245787599</v>
+        <v>68.72933769779776</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.487218319296</v>
+        <v>33.94591674004666</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.59577248739909</v>
+        <v>55.79452533021926</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.59461888292187</v>
+        <v>64.54013558080364</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.52091684588391</v>
+        <v>49.77613320953505</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.46577583233718</v>
+        <v>49.29557583764814</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.48207264579445</v>
+        <v>58.01355475057859</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.52189993157645</v>
+        <v>62.43816104465078</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.42587997307503</v>
+        <v>27.65988349183853</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.49240123440392</v>
+        <v>49.50625782075851</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.50214150381615</v>
+        <v>58.25013014408025</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.44005713556226</v>
+        <v>23.62010766588823</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.47511213897386</v>
+        <v>51.01652481705425</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.53045021578492</v>
+        <v>58.91801766599805</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.38262394246908</v>
+        <v>27.37283858942842</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.46041653868247</v>
+        <v>45.52942729178518</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.50147756001214</v>
+        <v>51.56227311603665</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.41764492941016</v>
+        <v>38.94398547682046</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.54245851802229</v>
+        <v>54.34597212180167</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.63435540585282</v>
+        <v>59.85796016945916</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.5809749154199</v>
+        <v>59.38148036462827</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.62047867210666</v>
+        <v>68.10057315865301</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.68076299373663</v>
+        <v>72.52572233217883</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.44055542337553</v>
+        <v>37.74189977119501</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.54263994631221</v>
+        <v>59.59091575112588</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.59217012960343</v>
+        <v>68.33656952549872</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.48140421408838</v>
+        <v>41.8379874756579</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.40805726746904</v>
+        <v>41.35656542991741</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.42369840979245</v>
+        <v>50.07447638577368</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.45370271265631</v>
+        <v>54.49925821259491</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.39186787462431</v>
+        <v>19.72161062575312</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.46545167624386</v>
+        <v>41.56725849507929</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.48901039235516</v>
+        <v>50.31147164980781</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.41195019873568</v>
+        <v>15.68335687036883</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.45497270257155</v>
+        <v>43.07909194098069</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.53312746059792</v>
+        <v>50.98080497698642</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.38214967547356</v>
+        <v>19.43507570557269</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.44691757437053</v>
+        <v>37.5910481531529</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.52619867757775</v>
+        <v>43.62414839627662</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.38336370433145</v>
+        <v>31.00543023382342</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.48483701165267</v>
+        <v>46.40688779847905</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.624523478045</v>
+        <v>51.91911463928604</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.48750342619184</v>
+        <v>51.44177011859837</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.53170157043422</v>
+        <v>60.16079495434839</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.66070055809655</v>
+        <v>64.58611966551054</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.37249177591463</v>
+        <v>29.8029270552736</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.44160136796919</v>
+        <v>51.65121657561669</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.59220151010151</v>
+        <v>60.39721118893307</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-13.27592170648004</v>
+        <v>-13.27592170647368</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.11112020706982</v>
+        <v>14.11112020709972</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.00769155473633</v>
+        <v>22.00769155477373</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-9.527552358388544</v>
+        <v>-9.527552358387066</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.619986090821971</v>
+        <v>8.619986090816742</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.64809363919177</v>
+        <v>14.64809363919541</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.035516676027346</v>
+        <v>2.035516676040078</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.42903583261286</v>
+        <v>17.42903583263321</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.93672369456182</v>
+        <v>22.93672369456012</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.45514676745553</v>
+        <v>22.45514676756149</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.16925799263847</v>
+        <v>31.16925799268201</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.5916675215873</v>
+        <v>35.5916675216297</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8236542784626586</v>
+        <v>0.8236542784633407</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.65915762642375</v>
+        <v>22.65915762640488</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.40086296323559</v>
+        <v>31.40086296326173</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-10.6124647370958</v>
+        <v>-10.61246473710171</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.7782289378837</v>
+        <v>16.77822893791508</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.67819505437059</v>
+        <v>24.67819505437298</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-6.868442074985392</v>
+        <v>-6.868442074977434</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.28238963619562</v>
+        <v>11.28238963624496</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.3138283696642</v>
+        <v>17.31382836970262</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.697847845094561</v>
+        <v>4.697847845144356</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.0948651201003</v>
+        <v>20.09486512013418</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-3.651620347174326</v>
+        <v>-3.651620347189105</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.73638697715684</v>
+        <v>23.73638697719175</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.63290173781185</v>
+        <v>31.63290173780969</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.09847412419118839</v>
+        <v>0.09847412416799628</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.24691279932678</v>
+        <v>18.24691279937931</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.27493111036553</v>
+        <v>24.27493111035621</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.66233586270791</v>
+        <v>11.66233586273792</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.05663770322123</v>
+        <v>27.05663770322169</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.56423079630976</v>
+        <v>32.56423079632204</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.08336029284386</v>
+        <v>32.08336029290719</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.7975967241721</v>
+        <v>40.79759672420995</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.21997025958252</v>
+        <v>45.21997025960799</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.45083864763037</v>
+        <v>10.45083864758114</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.28746371319166</v>
+        <v>32.28746371317028</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.02899703989432</v>
+        <v>41.02899703990262</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.9862859091287923</v>
+        <v>-0.9862859091455043</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.40537326418702</v>
+        <v>26.40537326423091</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.30528286481594</v>
+        <v>34.30528286485288</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.759462036774284</v>
+        <v>2.759462036752229</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20.91119405477095</v>
+        <v>20.91119405480369</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.94254362996709</v>
+        <v>26.94254363000188</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.72434487079979</v>
+        <v>29.72434487076591</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1416888332743333</v>
+        <v>0.1416888332779713</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.52995714243493</v>
+        <v>27.52995714246596</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.42653791841373</v>
+        <v>35.42653791841384</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.89269131283358</v>
+        <v>3.892691312808456</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.04143124948441</v>
+        <v>22.04143124948611</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.06952135712551</v>
+        <v>28.06952135709868</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.45666196811512</v>
+        <v>15.45666196815889</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.85123285148974</v>
+        <v>30.85123285152658</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.35888284227714</v>
+        <v>36.35888284232909</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.87801989385038</v>
+        <v>35.87801989395145</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.59227685320299</v>
+        <v>44.59227685325256</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.01472120930875</v>
+        <v>49.01472120935161</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.24518797802877</v>
+        <v>14.24518797799046</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.08222041277294</v>
+        <v>36.08222041277601</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.82379725921136</v>
+        <v>44.82379725927923</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.807673390080499</v>
+        <v>2.807673390135751</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.19959356217443</v>
+        <v>30.19959356224719</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.09956919129401</v>
+        <v>38.09956919134221</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.554329406050005</v>
+        <v>6.554329406070014</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.7063627024544</v>
+        <v>24.70636270253739</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.73778408683781</v>
+        <v>30.7377840869183</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.12152114886137</v>
+        <v>18.12152114889331</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.51959024602617</v>
+        <v>33.51959024601639</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-7.79242852405967</v>
+        <v>-7.792428524084908</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.59515780931726</v>
+        <v>19.59515780923472</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.49195878964169</v>
+        <v>27.49195878958621</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-4.042437724234997</v>
+        <v>-4.042437724347774</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.10568605394726</v>
+        <v>14.10568605395294</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.13403060250234</v>
+        <v>20.13403060248062</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.520740749782949</v>
+        <v>7.5207407497759</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.91478264177103</v>
+        <v>22.91478264174249</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.42267143821597</v>
+        <v>28.42267143821313</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.94094380762535</v>
+        <v>27.94094380764422</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.65513281379823</v>
+        <v>36.6551328138146</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.07775269375078</v>
+        <v>41.07775269374714</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6.308849314572871</v>
+        <v>6.308849314558319</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.14515541808</v>
+        <v>28.14515541807681</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.88707311062298</v>
+        <v>36.88707311065515</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-5.127991137093186</v>
+        <v>-5.127991137088411</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.26324699168801</v>
+        <v>22.26324699163549</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.16344277858345</v>
+        <v>30.16344277857424</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1.382346961500939</v>
+        <v>-1.382346961524473</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.76907011913262</v>
+        <v>16.76907011914036</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.80074588650918</v>
+        <v>22.80074588649963</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.18405244871407</v>
+        <v>10.18405244865837</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.5815924967517</v>
+        <v>25.58159249671134</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.60546643781472</v>
+        <v>25.60546643786292</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.1245120659968</v>
+        <v>25.12451206602693</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.84166484288507</v>
+        <v>33.84166484291292</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.26607882506495</v>
+        <v>38.26607882510065</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3.492132591048421</v>
+        <v>3.492132591027161</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.33475543089027</v>
+        <v>25.33475543093677</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.07835206255392</v>
+        <v>34.07835206256176</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-0.5429226855928668</v>
+        <v>-0.5429226855818392</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.85011982880998</v>
+        <v>26.85011982881271</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.75125345501387</v>
+        <v>34.75125345499715</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3.205999704047503</v>
+        <v>3.205999704022378</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.35945273261452</v>
+        <v>21.35945273262157</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.39200112275195</v>
+        <v>27.39200112279515</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.77481027216313</v>
+        <v>14.77481027215892</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.17402326560604</v>
+        <v>30.17402326558762</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.6857456341079</v>
+        <v>35.68574563408448</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.20886851952629</v>
+        <v>35.20886851955142</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.9271351683383</v>
+        <v>43.92713516836717</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.35209204144327</v>
+        <v>48.35209204149375</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>13.57260100035241</v>
+        <v>13.57260100035946</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.41786542665592</v>
+        <v>35.41786542666604</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.16324345960142</v>
+        <v>44.1632434596478</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.23485148443127</v>
+        <v>35.23485148441172</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.75460338554696</v>
+        <v>34.75460338556412</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.47188136742899</v>
+        <v>43.47188136746207</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.89625938099404</v>
+        <v>47.89625938099472</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>13.12119473029022</v>
+        <v>13.12119473022121</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.96493941335645</v>
+        <v>34.96493941334349</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.70836408027948</v>
+        <v>43.70836408025617</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>9.084774145853903</v>
+        <v>9.084774145838441</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.47878218037228</v>
+        <v>36.47878218039433</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.37985926654802</v>
+        <v>44.3798592665744</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>12.8354220924124</v>
+        <v>12.83542209240229</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.98977545318862</v>
+        <v>30.98977545320499</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.02223465932072</v>
+        <v>37.0222346593289</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.40502556808567</v>
+        <v>24.40502556808817</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>39.80502134572397</v>
+        <v>39.80502134574228</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.31664898553369</v>
+        <v>45.31664898548844</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.84047821625872</v>
+        <v>44.8404782162544</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.55887007047092</v>
+        <v>53.55887007045307</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.98379096722239</v>
+        <v>57.98379096721011</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.2031814626355</v>
+        <v>23.20318146262027</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.04956774414985</v>
+        <v>45.04956774420567</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.79477380983919</v>
+        <v>53.79477380987647</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.03015376932719</v>
+        <v>39.03015376941597</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.54991309897299</v>
+        <v>38.54991309900267</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.26721159187458</v>
+        <v>47.26721159188698</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.69166043781139</v>
+        <v>51.69166043782594</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.91619421916473</v>
+        <v>16.91619421915836</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.7603462834626</v>
+        <v>38.76034628343713</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.50381448170653</v>
+        <v>47.50381448171096</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>12.87961981367586</v>
+        <v>12.87961981376215</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.27388885101915</v>
+        <v>40.27388885103996</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>48.17503195002429</v>
+        <v>48.17503195009796</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.6311759032699</v>
+        <v>16.63117590329286</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.78583054680372</v>
+        <v>34.78583054682998</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.81836154936697</v>
+        <v>40.81836154940869</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.20088835180856</v>
+        <v>28.20088835184506</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>43.60115319153478</v>
+        <v>43.6011531915599</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49.11283772648268</v>
+        <v>49.11283772648473</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>48.63667439706877</v>
+        <v>48.63667439717814</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>57.35508675528719</v>
+        <v>57.35508675533471</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>61.78007847830146</v>
+        <v>61.78007847833557</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.99906738067979</v>
+        <v>26.99906738071867</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.84586103971937</v>
+        <v>48.84586103969367</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>57.59111062971637</v>
+        <v>57.59111062970227</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.09239478211193</v>
+        <v>31.0923947820677</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.61128946226588</v>
+        <v>30.61128946231624</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.32852000352047</v>
+        <v>39.32852000353297</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.7531443741383</v>
+        <v>43.75314437416138</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.978308091344065</v>
+        <v>8.978308091289268</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.82173373303035</v>
+        <v>30.82173373300067</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.56554274977988</v>
+        <v>39.56554274975737</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4.943255661802272</v>
+        <v>4.943255661823418</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.33684265160356</v>
+        <v>32.33684265161197</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.23820592742108</v>
+        <v>40.23820592739402</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>8.693799704753037</v>
+        <v>8.693799704735643</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.84783812543153</v>
+        <v>26.84783812545688</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.88062353509282</v>
+        <v>32.8806235350694</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.26271982739015</v>
+        <v>20.2627198273715</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.66245561452151</v>
+        <v>35.66245561448797</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.17437893178966</v>
+        <v>41.17437893175703</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.69735091112626</v>
+        <v>40.6973509111382</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.41569531632105</v>
+        <v>49.41569531634481</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.84086256903721</v>
+        <v>53.84086256904494</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.06048139169356</v>
+        <v>19.06048139167219</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.90654862821511</v>
+        <v>40.90654862822625</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.65213904418125</v>
+        <v>49.65213904420115</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-5.066979122338676</v>
+        <v>-5.066979122341177</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.31899764594461</v>
+        <v>22.31899764596053</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.21433147723203</v>
+        <v>30.214331477285</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1.317997011592166</v>
+        <v>-1.31799701161297</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.82965218761969</v>
+        <v>16.82965218758195</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.85666699867831</v>
+        <v>22.85666699871503</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.24530874324502</v>
+        <v>10.24530874328254</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.63894850920191</v>
+        <v>25.6389485092118</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.14572565630501</v>
+        <v>31.14572565632547</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.6642366959285</v>
+        <v>30.66423669596215</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.37791730806192</v>
+        <v>39.37791730808364</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.79969163714101</v>
+        <v>43.79969163717534</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>9.033290125681237</v>
+        <v>9.033290125652815</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.8686460531725</v>
+        <v>30.8686460531368</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.60907611066774</v>
+        <v>39.60907611067911</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-2.409120320607808</v>
+        <v>-2.409120320567791</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.98050768641192</v>
+        <v>24.98050768639236</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.87923580492067</v>
+        <v>32.87923580490373</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1.335515069383195</v>
+        <v>1.335515069414459</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.48645703852255</v>
+        <v>19.48645703853403</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.51680255048395</v>
+        <v>25.51680255047997</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>12.90204130951306</v>
+        <v>12.90204130951578</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.29917869696807</v>
+        <v>28.29917869700173</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4.556146762089288</v>
+        <v>4.556146762100088</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.94308885158127</v>
+        <v>31.94308885160753</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.83836608563605</v>
+        <v>39.83836608566948</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8.306853819061889</v>
+        <v>8.306853819030852</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.45540316477174</v>
+        <v>26.45540316477549</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.48232873063559</v>
+        <v>32.4823287306357</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.8709521987005</v>
+        <v>19.870952198649</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.26537457632971</v>
+        <v>35.26537457629651</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.77205695134059</v>
+        <v>40.77205695133161</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.29127436965099</v>
+        <v>40.2912743696826</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.00508018021516</v>
+        <v>49.00508018021698</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.42681851004274</v>
+        <v>53.42681851000908</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.65929874206951</v>
+        <v>18.65929874209964</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.49577628838371</v>
+        <v>40.49577628838712</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49.23603434130429</v>
+        <v>49.2360343412861</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>7.215882808285318</v>
+        <v>7.215882808274632</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.60647622408091</v>
+        <v>34.60647622408057</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.50514781639312</v>
+        <v>42.50514781638425</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.96224330528334</v>
+        <v>10.96224330525265</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.1140855018523</v>
+        <v>29.11408550182684</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.14434184744233</v>
+        <v>35.14434184746541</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.52956234036266</v>
+        <v>22.52956234033902</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>37.92748241975973</v>
+        <v>37.92748241972096</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.348908255357305</v>
+        <v>8.348908255351393</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.73611129251925</v>
+        <v>35.73611129250118</v>
       </c>
     </row>
     <row r="229">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.10052323206914</v>
+        <v>12.10052323203924</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.24937379775453</v>
+        <v>30.24937379775738</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.27637114962103</v>
+        <v>36.27637114961762</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.6647304998843</v>
+        <v>23.66473050001334</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.05942188263965</v>
+        <v>39.05942188269127</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.56616114661598</v>
+        <v>44.5661611466693</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.08538614267697</v>
+        <v>44.08538614276735</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.79921247695371</v>
+        <v>52.79921247693314</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>57.22102161456498</v>
+        <v>57.22102161457748</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.45310027919142</v>
+        <v>22.45310027924178</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>44.28998514563013</v>
+        <v>44.28998514567014</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>53.03028670868549</v>
+        <v>53.03028670870596</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>11.00929437105789</v>
+        <v>11.0092943711061</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.40014874830071</v>
+        <v>38.40014874836073</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>46.29888635903684</v>
+        <v>46.29888635903377</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.75656284931349</v>
+        <v>14.75656284929086</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.9087062828179</v>
+        <v>32.90870628280301</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.93903442688863</v>
+        <v>38.93903442689192</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.32399080424752</v>
+        <v>26.32399080431471</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>41.72217990352171</v>
+        <v>41.722179903559</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.4156941168972885</v>
+        <v>0.4156941168356703</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.80221523555453</v>
+        <v>27.80221523549485</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.69777867007612</v>
+        <v>35.69777867002746</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4.166297530948118</v>
+        <v>4.166297530955166</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.31453198490057</v>
+        <v>22.31453198487477</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.34178376582101</v>
+        <v>28.34178376577121</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>15.72971268594951</v>
+        <v>15.72971268593598</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.12387511936688</v>
+        <v>31.12387511938131</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.6308531753855</v>
+        <v>36.63085317535617</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.1492135731212</v>
+        <v>36.149213573122</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.86297195563601</v>
+        <v>44.86297195558042</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.28495660255705</v>
+        <v>49.28495660249565</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>14.5176650569256</v>
+        <v>14.51766505689945</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.35382365184286</v>
+        <v>36.35382365181341</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>45.0944660330813</v>
+        <v>45.0944660330663</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>3.074533249551923</v>
+        <v>3.074533249508153</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.46470564087612</v>
+        <v>30.46470564087555</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>38.36366340020392</v>
+        <v>38.36366340020778</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>6.820790004360237</v>
+        <v>6.820790004351142</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.97231726899942</v>
+        <v>24.97231726898487</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.00289978417722</v>
+        <v>31.00289978420496</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>18.38742569529144</v>
+        <v>18.38742569527837</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.78508578763571</v>
+        <v>33.78508578757125</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.80886886659938</v>
+        <v>33.80886886658119</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.32800265198399</v>
+        <v>33.3280026519799</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.04472441317513</v>
+        <v>42.04472441323607</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>46.46850295357116</v>
+        <v>46.46850295356593</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.69616951604509</v>
+        <v>11.69616951607124</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.53864400621332</v>
+        <v>33.53864400622992</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.28096501780318</v>
+        <v>42.28096501784707</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>7.659173174304573</v>
+        <v>7.659173174311622</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.05114974957816</v>
+        <v>35.05114974957532</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.95104527929222</v>
+        <v>42.95104527936782</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.40870779355511</v>
+        <v>11.40870779356807</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.56227078739962</v>
+        <v>29.56227078738165</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.59372587679378</v>
+        <v>35.59372587681766</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.97775446537891</v>
+        <v>22.97775446541234</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.37708732304169</v>
+        <v>38.37708732302794</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.88789846863587</v>
+        <v>43.88789846863428</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.4111090810443</v>
+        <v>43.41110908105192</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>52.12894462653254</v>
+        <v>52.128944626582</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>56.5532659713739</v>
+        <v>56.55326597138266</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.77538830160576</v>
+        <v>21.77538830160735</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>43.62050414555178</v>
+        <v>43.620504145586</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>52.36460633861863</v>
+        <v>52.36460633860942</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.43707788178689</v>
+        <v>43.43707788175233</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.95691789588774</v>
+        <v>42.95691789589786</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.67376485443721</v>
+        <v>51.67376485443448</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.09750742026269</v>
+        <v>56.09750742025587</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.32405567823698</v>
+        <v>21.3240556782006</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.16765191257083</v>
+        <v>43.16765191255821</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>51.90980096475052</v>
+        <v>51.90980096473119</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>17.28569410191394</v>
+        <v>17.28569410192144</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.03695410112757</v>
+        <v>21.0369541011395</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.19141734778488</v>
+        <v>39.19141734780762</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.22278324521552</v>
+        <v>45.22278324527271</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.60679360118822</v>
+        <v>32.60679360117832</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.00690917086128</v>
+        <v>48.00690917084957</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>53.51762558425959</v>
+        <v>53.51762558423719</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>53.04154249704119</v>
+        <v>53.04154249704392</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>61.75950324037412</v>
+        <v>61.75950324039469</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.18378860292502</v>
+        <v>66.18378860294071</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.40479258238408</v>
+        <v>31.4047925823859</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.25103018257518</v>
+        <v>53.25103018262611</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>61.99496041351928</v>
+        <v>61.99496041354031</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>47.2318322668947</v>
+        <v>47.23183226693062</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.75167973148656</v>
+        <v>46.75167973162048</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.4685471969657</v>
+        <v>55.46854719700811</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>59.8923605824174</v>
+        <v>59.89236058244173</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.11850732440395</v>
+        <v>25.11850732440725</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.9625108909603</v>
+        <v>46.96251089100885</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.70470346511821</v>
+        <v>55.70470346512242</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.07999194251956</v>
+        <v>21.07999194261676</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.47319491399311</v>
+        <v>48.47319491397492</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.37309989624306</v>
+        <v>56.37309989619111</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.83215999574294</v>
+        <v>24.83215999573885</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.98692448351962</v>
+        <v>42.98692448356759</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.01836216688856</v>
+        <v>49.01836216696303</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.40210844085813</v>
+        <v>36.40210844089235</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>51.80249303439702</v>
+        <v>51.80249303442146</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>57.31326633442042</v>
+        <v>57.31326633439893</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>56.8371907096023</v>
+        <v>56.83719070963538</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>65.55517195275424</v>
+        <v>65.55517195276049</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>69.979528128908</v>
+        <v>69.97952812890425</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.2001305668265</v>
+        <v>35.20013056684697</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.04677549542693</v>
+        <v>57.04677549545603</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.79074924130659</v>
+        <v>65.79074924130909</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>39.29497689936058</v>
+        <v>39.29497689933841</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.81395979867001</v>
+        <v>38.81395979868104</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>47.53075931345496</v>
+        <v>47.53075931347509</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.95474820910705</v>
+        <v>51.9547482091149</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.1815248245655</v>
+        <v>17.18152482450218</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.02480202816061</v>
+        <v>39.02480202809046</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.76733539271937</v>
+        <v>47.76733539272267</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.14453132665132</v>
+        <v>13.14453132666292</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.53705230782704</v>
+        <v>40.53705230780953</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.43717745758342</v>
+        <v>48.43717745756148</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.89568745041528</v>
+        <v>16.89568745041187</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.04983576249835</v>
+        <v>35.04983576244207</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.0815278408502</v>
+        <v>41.0815278408444</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.46484363774063</v>
+        <v>28.46484363776041</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.86469922106666</v>
+        <v>43.86469922101459</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>49.37571128995832</v>
+        <v>49.3757112899133</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.89877105770007</v>
+        <v>48.89877105769075</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.61668434904358</v>
+        <v>57.61668434904915</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>62.04121604039291</v>
+        <v>62.041216040328</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.26244833599062</v>
+        <v>27.26244833595605</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.10836690211535</v>
+        <v>49.10836690209511</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.85268144587771</v>
+        <v>57.85268144588646</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.767467965514452</v>
+        <v>-4.767467965522069</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.62007340960965</v>
+        <v>22.62007340964682</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.51562451787131</v>
+        <v>30.51562451783913</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1.019465166544119</v>
+        <v>-1.0194651665722</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.12933591925482</v>
+        <v>17.12933591919263</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.1564194975946</v>
+        <v>23.15641949754901</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.54482025916674</v>
+        <v>10.5448202592087</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.93945859178668</v>
+        <v>25.9394585917968</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.44631916935909</v>
+        <v>31.44631916936693</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.9646763456408</v>
+        <v>30.9646763456458</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.67880203183542</v>
+        <v>39.67880203186623</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.10076832730773</v>
+        <v>44.10076832728386</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9.332213552465664</v>
+        <v>9.33221355251273</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.16917278415078</v>
+        <v>31.16917278414418</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.90977183531778</v>
+        <v>39.90977183538679</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-2.11184737366737</v>
+        <v>-2.111847373685674</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.27934532969336</v>
+        <v>25.27934532967346</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.17829098713391</v>
+        <v>33.17829098713527</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1.63180854357849</v>
+        <v>1.631808543596907</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.78390247516508</v>
+        <v>19.78390247518395</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.81431701657199</v>
+        <v>25.81431701656529</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.19931447401088</v>
+        <v>13.19931447410081</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.59745049954633</v>
+        <v>28.59745049954485</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>4.856082983269761</v>
+        <v>4.856082983294886</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.24458972935805</v>
+        <v>32.24458972938295</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.14008423396025</v>
+        <v>40.14008423399345</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.605810796694431</v>
+        <v>8.605810796674309</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.75551207798437</v>
+        <v>26.75551207800153</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.78250640186606</v>
+        <v>32.78250640185264</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.17088889785284</v>
+        <v>20.17088889786841</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.56630988357928</v>
+        <v>35.56630988361111</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.07307568120952</v>
+        <v>41.07307568118246</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>40.59213927726695</v>
+        <v>40.5921392772441</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.30639017227135</v>
+        <v>49.30639017234547</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.72832046234488</v>
+        <v>53.72832046234693</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.95864737557419</v>
+        <v>18.95864737556498</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.79672828834147</v>
+        <v>40.79672828833624</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.53715532321361</v>
+        <v>49.53715532325488</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.51358089988334</v>
+        <v>7.513580899918015</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.9057390618474</v>
+        <v>34.9057390618391</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.80462818682624</v>
+        <v>42.80462818683374</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>11.25896199331921</v>
+        <v>11.25896199326043</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.4119562008457</v>
+        <v>29.41195620083296</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.44228156681108</v>
+        <v>35.44228156679914</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.82726076858423</v>
+        <v>22.82726076857672</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.22617952746886</v>
+        <v>38.22617952749</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>8.649009110561014</v>
+        <v>8.649009110601487</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.03777681524697</v>
+        <v>36.03777681528608</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>43.93333732959071</v>
+        <v>43.93333732964176</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.39964489950139</v>
+        <v>12.39964489956948</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.54964741370954</v>
+        <v>30.5496474136826</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.57671352856848</v>
+        <v>36.57671352858576</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.96483188923527</v>
+        <v>23.96483188929098</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>39.36052189114174</v>
+        <v>39.36052189113322</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>44.86734458258833</v>
+        <v>44.86734458253308</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.3864157604594</v>
+        <v>44.38641576045417</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.10068718211814</v>
+        <v>53.10068718210972</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.5226882835217</v>
+        <v>57.52268828353409</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.7526136122764</v>
+        <v>22.7526136122814</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.59110186528302</v>
+        <v>44.59110186530758</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>53.33157241170296</v>
+        <v>53.33157241172241</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.30715712823111</v>
+        <v>11.30715712827307</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.69957626258226</v>
+        <v>38.69957626261943</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>46.59853141038754</v>
+        <v>46.59853141040755</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.05344625843874</v>
+        <v>15.05344625842669</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.20674171589589</v>
+        <v>33.20674171590805</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.23713888537294</v>
+        <v>39.23713888532735</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.62185395425958</v>
+        <v>26.62185395427391</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.02104174393811</v>
+        <v>42.02104174397995</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.7154315892045311</v>
+        <v>0.7154315891997562</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.10351733717313</v>
+        <v>28.10351733717575</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.99929806266415</v>
+        <v>35.99929806264244</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.465055790879564</v>
+        <v>4.465055790907304</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.61444215685596</v>
+        <v>22.61444215678161</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.64176271944861</v>
+        <v>28.64176271940564</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.02945061083769</v>
+        <v>16.0294506108602</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.42461163254326</v>
+        <v>31.42461163252746</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.93167313276992</v>
+        <v>36.93167313272183</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.44987966626651</v>
+        <v>36.44987966630164</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.16408313010892</v>
+        <v>45.16408313010756</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>49.58625975455313</v>
+        <v>49.58625975451163</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.81681490591304</v>
+        <v>14.81681490588916</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.65457684553395</v>
+        <v>36.65457684551235</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>45.39538822770818</v>
+        <v>45.39538822774752</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.372032545482984</v>
+        <v>3.372032545496058</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.7637696558851</v>
+        <v>30.7637696558527</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.6629449682123</v>
+        <v>38.66294496823777</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.117309928181971</v>
+        <v>7.117309928148206</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.26998918031986</v>
+        <v>25.26998918026517</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.30064073952839</v>
+        <v>31.30064073949145</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.68492530289292</v>
+        <v>18.68492530291305</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.0835840550899</v>
+        <v>34.08358405505557</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.10722434713843</v>
+        <v>34.10722434716412</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.62620439614422</v>
+        <v>33.62620439617048</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.34337131071131</v>
+        <v>42.34337131072245</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>46.76734197948862</v>
+        <v>46.76734197946736</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.99285509619883</v>
+        <v>11.99285509621599</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.83693310239018</v>
+        <v>33.83693310244054</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.57942339536159</v>
+        <v>42.57942339542139</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.95709136812015</v>
+        <v>7.95709136814391</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.35063277943938</v>
+        <v>35.3506327793831</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>43.25074587876533</v>
+        <v>43.25074587874703</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.70564668700151</v>
+        <v>11.70564668699639</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.86036181482691</v>
+        <v>29.86036181486465</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.89188595572411</v>
+        <v>35.89188595572445</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.2756732410286</v>
+        <v>23.27567324105816</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.67600488170469</v>
+        <v>38.67600488173879</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>44.18689972289748</v>
+        <v>44.18689972291953</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>43.70995681485739</v>
+        <v>43.70995681497961</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>52.42823758482633</v>
+        <v>52.42823758481508</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>56.85275106468511</v>
+        <v>56.85275106470716</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.07271969357977</v>
+        <v>22.07271969361297</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.91943922340774</v>
+        <v>43.91943922350039</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>52.66371071703817</v>
+        <v>52.66371071702885</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.73585866001476</v>
+        <v>43.73585865998861</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.25554497891018</v>
+        <v>43.25554497895077</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.97283710107833</v>
+        <v>51.97283710110584</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.39677178936428</v>
+        <v>56.39677178935871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>21.621166545605</v>
+        <v>21.62116654558271</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.46636635845222</v>
+        <v>43.46636635848087</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>52.20868468052846</v>
+        <v>52.20868468051926</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>17.58403751920948</v>
+        <v>17.5840375192387</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.97854441068138</v>
+        <v>44.97854441072037</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>52.87860095344935</v>
+        <v>52.87860095347811</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.33431828678285</v>
+        <v>21.33431828679865</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.48993371604173</v>
+        <v>39.4899337160456</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>45.52136865588353</v>
+        <v>45.52136865588729</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.90513771924908</v>
+        <v>32.90513771919429</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.30625211323401</v>
+        <v>48.30625211323799</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.81705221473386</v>
+        <v>53.81705221473273</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>53.34081564855741</v>
+        <v>53.34081564855923</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.05922162654555</v>
+        <v>62.05922162652043</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.48369911803026</v>
+        <v>66.48369911800911</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.70254934005267</v>
+        <v>31.70254934003551</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>53.55039068849307</v>
+        <v>53.55039068849125</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62.29449020856511</v>
+        <v>62.2944902085534</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>47.53077778239675</v>
+        <v>47.53077778239232</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.05047155619458</v>
+        <v>47.05047155621948</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>55.76778418809171</v>
+        <v>55.76778418809558</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>60.19178969943427</v>
+        <v>60.191789699447</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.41578292307124</v>
+        <v>25.41578292312956</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>47.26139008803638</v>
+        <v>47.26139008803138</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>56.00375193330957</v>
+        <v>56.00375193332185</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.37850007191925</v>
+        <v>21.37850007191209</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>48.77326793993156</v>
+        <v>48.77326793993974</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>56.67339048997827</v>
+        <v>56.67339049000283</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.12968894911002</v>
+        <v>25.12968894916675</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>43.28560563252439</v>
+        <v>43.28560563253269</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.31711236306741</v>
+        <v>49.31711236312937</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.70061732676324</v>
+        <v>36.70061732679882</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>52.10200075587069</v>
+        <v>52.10200075592719</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>57.61285774858256</v>
+        <v>57.61285774860472</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>57.13662864909226</v>
+        <v>57.1366286491366</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.85505512966883</v>
+        <v>65.85505512969532</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.27960343828251</v>
+        <v>70.27960343824613</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35.49805210216961</v>
+        <v>35.49805210216552</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>57.3463007990339</v>
+        <v>57.34630079908938</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>66.09044383515574</v>
+        <v>66.09044383521133</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>39.59355885861079</v>
+        <v>39.59355885860067</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>39.11238802042102</v>
+        <v>39.11238802038817</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.82963269592859</v>
+        <v>47.82963269593837</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>52.25381373119787</v>
+        <v>52.25381373115364</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>17.47843686116098</v>
+        <v>17.47843686111812</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.32331762139872</v>
+        <v>39.32331762137348</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>48.06602027485282</v>
+        <v>48.06602027483792</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.44267595942906</v>
+        <v>13.44267595941212</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.83676179922249</v>
+        <v>40.83676179920646</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.73710453263165</v>
+        <v>48.73710453261823</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.19285288278424</v>
+        <v>17.19285288282153</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.34815335378779</v>
+        <v>35.34815335372959</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>41.3799144981656</v>
+        <v>41.37991449816106</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.76298894581216</v>
+        <v>28.76298894584854</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>44.16384333388841</v>
+        <v>44.16384333389978</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.67493911226553</v>
+        <v>49.67493911221722</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>49.19784535904854</v>
+        <v>49.1978453590241</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.91620388194714</v>
+        <v>57.91620388191735</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>62.34092771945065</v>
+        <v>62.34092771947361</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.56000627384846</v>
+        <v>27.5600062738197</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.40752856640655</v>
+        <v>49.4075285663928</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>58.15201241807837</v>
+        <v>58.15201241813567</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-13.11837290190611</v>
+        <v>-13.11837290192703</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.26890921689382</v>
+        <v>14.26890921683118</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.16448446629831</v>
+        <v>22.16448446625386</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-9.370938164869454</v>
+        <v>-9.370938164891623</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>8.777485698373443</v>
+        <v>8.777485698420737</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.80458762654543</v>
+        <v>14.80458762659989</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.193005886301325</v>
+        <v>2.193005886283931</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.58725916656535</v>
+        <v>17.5872591665865</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.0941605202021</v>
+        <v>23.09416052015765</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.61281610555297</v>
+        <v>22.61281610556025</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.32676392805265</v>
+        <v>31.326763928039</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.74878462578341</v>
+        <v>35.74878462577114</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0.980940505264261</v>
+        <v>0.9809405052576672</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.81759815115744</v>
+        <v>22.81759815119814</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.55829210307401</v>
+        <v>31.5582921031171</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-10.46196282332845</v>
+        <v>-10.46196282333356</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.92897074557495</v>
+        <v>16.92897074557984</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.82794059063362</v>
+        <v>24.82794059058269</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-6.718875002930627</v>
+        <v>-6.718875002943701</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.43284182802281</v>
+        <v>11.43284182805009</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.4632747738432</v>
+        <v>17.46327477387935</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.848289641160722</v>
+        <v>4.848289641122296</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.24604074623416</v>
+        <v>20.24604074626247</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.4948330808521</v>
+        <v>-3.494833080837889</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.8934144107782</v>
+        <v>23.89341441078308</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.78893305691578</v>
+        <v>31.78893305689532</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.2543266861686284</v>
+        <v>0.2543266861436173</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.40365074450894</v>
+        <v>18.40365074454396</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.43066341921032</v>
+        <v>24.43066341920111</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.81906341565038</v>
+        <v>11.81906341564936</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.21409934819157</v>
+        <v>27.21409934821033</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.72090592368865</v>
+        <v>32.72090592368728</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.24026794326564</v>
+        <v>32.24026794329144</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>40.95434097308647</v>
+        <v>40.95434097313752</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>45.37632566637798</v>
+        <v>45.37632566642959</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.60736323525795</v>
+        <v>10.60736323526728</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.44514256477977</v>
+        <v>32.44514256476613</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.18566450140305</v>
+        <v>41.18566450140919</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-0.8365456261361537</v>
+        <v>-0.8365456261236481</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.55535340327096</v>
+        <v>26.5553534032979</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.45426671605846</v>
+        <v>34.45426671602969</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.908267385389326</v>
+        <v>2.908267385359768</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.0608844920164</v>
+        <v>21.06088449203869</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.09122826331908</v>
+        <v>27.09122826331215</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.47622487741627</v>
+        <v>14.47622487738683</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.87475871508754</v>
+        <v>29.8747587150822</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>0.2981050507115874</v>
+        <v>0.2981050507337564</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.68661350323557</v>
+        <v>27.68661350328684</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.58219816171244</v>
+        <v>35.58219816177395</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.048172803218581</v>
+        <v>4.048172803198458</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.19779809666536</v>
+        <v>22.19779809663841</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.22488256502335</v>
+        <v>28.22488256502927</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.61301842310742</v>
+        <v>15.61301842313084</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.00832337370823</v>
+        <v>31.00832337377712</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.51518684567419</v>
+        <v>36.5151868457191</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.03455644617999</v>
+        <v>36.0345564462565</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.74865000415788</v>
+        <v>44.74865000420029</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.17070550919802</v>
+        <v>49.17070550924178</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>14.40134148953907</v>
+        <v>14.40134148954191</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.23952816257385</v>
+        <v>36.23952816259499</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>44.98009361430128</v>
+        <v>44.98009361434528</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.957042623539355</v>
+        <v>2.95704262360336</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.34920262772052</v>
+        <v>30.34920262776724</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.24818196601213</v>
+        <v>38.2481819660244</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.702763682115819</v>
+        <v>6.702763682105473</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.85568204107598</v>
+        <v>24.85568204110247</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.88609761854334</v>
+        <v>30.88609761855811</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.27083009646539</v>
+        <v>18.27083009646357</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.66963296688245</v>
+        <v>33.66963296692337</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-7.635511302175797</v>
+        <v>-7.635511302192963</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.75231519197907</v>
+        <v>19.75231519197043</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.64812006493118</v>
+        <v>27.64812006494084</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-3.886455148604778</v>
+        <v>-3.886455148622399</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.26255399719198</v>
+        <v>14.26255399717106</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.28989291604787</v>
+        <v>20.28989291603365</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.677598297255731</v>
+        <v>7.677598297274489</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.07237426841825</v>
+        <v>23.07237426842405</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.57947655130501</v>
+        <v>28.57947655129069</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.09798149076564</v>
+        <v>28.09798149076109</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.81200709290273</v>
+        <v>36.81200709290057</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.23423812138152</v>
+        <v>41.23423812137663</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.465503921477552</v>
+        <v>6.465503921415252</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.30296427993177</v>
+        <v>28.30296427990585</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.04387057238399</v>
+        <v>37.04387057234796</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-4.97812082859819</v>
+        <v>-4.978120828599327</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.4133571497422</v>
+        <v>22.41335714972628</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.31255665591461</v>
+        <v>30.31255665587254</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1.233411529516598</v>
+        <v>-1.233411529562073</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.91889062443353</v>
+        <v>16.91889062440807</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.94956059446158</v>
+        <v>22.94956059445794</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>10.3338625595185</v>
+        <v>10.33386255948814</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.73213639277789</v>
+        <v>25.73213639276323</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.75585540446777</v>
+        <v>25.75585540448676</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.27513373051604</v>
+        <v>25.27513373057981</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.99212283429007</v>
+        <v>33.9921228343534</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.41614791236965</v>
+        <v>38.41614791239489</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3.642371461612147</v>
+        <v>3.642371461577358</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.48614805592492</v>
+        <v>25.48614805592026</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.22873322831403</v>
+        <v>34.22873322831164</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-0.3912987295359294</v>
+        <v>-0.3912987295312682</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.0019836040964</v>
+        <v>27.00198360408071</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.90212086179419</v>
+        <v>34.90212086178975</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>3.356688624327507</v>
+        <v>3.356688624315343</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.51102670750949</v>
+        <v>21.51102670751654</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.54256922908475</v>
+        <v>27.54256922913455</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.92637398711499</v>
+        <v>14.92637398708964</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.32632075425501</v>
+        <v>30.3263207542325</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.83725638354169</v>
+        <v>35.83725638351758</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.36061178122374</v>
+        <v>35.36061178120111</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.07871474480807</v>
+        <v>44.07871474482398</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>48.50328261400956</v>
+        <v>48.50328261403276</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.72396158588312</v>
+        <v>13.72396158584617</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.57037973668504</v>
+        <v>35.57037973667867</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.31474609978763</v>
+        <v>44.31474609975795</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.38447865992204</v>
+        <v>35.38447865995148</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.90446327033364</v>
+        <v>34.90446327038343</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.62157758008495</v>
+        <v>43.62157758009336</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.04556667823557</v>
+        <v>48.04556667824978</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.2706718689333</v>
+        <v>13.27067186893477</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.1155702724691</v>
+        <v>35.11557027249695</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.85798347486447</v>
+        <v>43.85798347490915</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>9.235636393337263</v>
+        <v>9.235636393384329</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.62988420926719</v>
+        <v>36.62988420926332</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.52996491075295</v>
+        <v>44.52996491073237</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>12.98534921137629</v>
+        <v>12.98534921138254</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.14058759576348</v>
+        <v>31.14058759572926</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.17204091709961</v>
+        <v>37.1720409170663</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.55582745564927</v>
+        <v>24.55582745564995</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.95655697538247</v>
+        <v>39.95655697542226</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.46739786667594</v>
+        <v>45.46739786668913</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.9914596199683</v>
+        <v>44.99145962000684</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.70968779020178</v>
+        <v>53.70968779019633</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.13421967172657</v>
+        <v>58.13421967177261</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>23.35378023893692</v>
+        <v>23.35378023885155</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>45.20132021104429</v>
+        <v>45.20132021102724</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>53.94551460144591</v>
+        <v>53.94551460143499</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.17940982056236</v>
+        <v>39.17940982058805</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.69940188485113</v>
+        <v>38.69940188490774</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.41653670582572</v>
+        <v>47.41653670587233</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>51.84059662777953</v>
+        <v>51.84059662779636</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>17.06530028112799</v>
+        <v>17.06530028112811</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.91060604004794</v>
+        <v>38.9106060400883</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.65306276956098</v>
+        <v>47.65306276959065</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>13.03011098297999</v>
+        <v>13.03011098303013</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.42461977752465</v>
+        <v>40.42461977751931</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.32476648895614</v>
+        <v>48.32476648899718</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.78073192094066</v>
+        <v>16.78073192094407</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.93627156171887</v>
+        <v>34.93627156176673</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.96779667649504</v>
+        <v>40.96779667659406</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.35131911201849</v>
+        <v>28.35131911203554</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.75231766877063</v>
+        <v>43.75231766883157</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>49.26321545436976</v>
+        <v>49.26321545436942</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.78728467332418</v>
+        <v>48.78728467339648</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.50553334761368</v>
+        <v>57.50553334766393</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>61.93013604678551</v>
+        <v>61.93013604679835</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.14929505144143</v>
+        <v>27.14929505144064</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>48.99724237493912</v>
+        <v>48.99724237494719</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>57.7414802854379</v>
+        <v>57.74148028544961</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.24215201359995</v>
+        <v>31.24215201361212</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.76127944998168</v>
+        <v>30.76127945003011</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.47834631630839</v>
+        <v>39.47834631632044</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.90258176257818</v>
+        <v>43.90258176258989</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>9.127915319361609</v>
+        <v>9.127915319342737</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.97249467250676</v>
+        <v>30.97249467248482</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.7152922148173</v>
+        <v>39.71529221483435</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>5.094247972377634</v>
+        <v>5.094247972395141</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.48807473692433</v>
+        <v>32.48807473692547</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.38844163497744</v>
+        <v>40.38844163497107</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.843856944356862</v>
+        <v>8.843856944326053</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.99878037314626</v>
+        <v>26.99878037310534</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.03055990463635</v>
+        <v>33.03055990462487</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.41365181676681</v>
+        <v>20.41365181671133</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.81412133283733</v>
+        <v>35.81412133281459</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.32525790590672</v>
+        <v>41.32525790585215</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.84846245524933</v>
+        <v>40.84846245522193</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.56664317373578</v>
+        <v>49.56664317369395</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.99142140219193</v>
+        <v>53.9914214021634</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.21121029470239</v>
+        <v>19.2112102946244</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.05843121259115</v>
+        <v>41.05843121250452</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.80300994330311</v>
+        <v>49.80300994324729</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-2.53425565801761</v>
+        <v>-2.534255658008515</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.85493413676888</v>
+        <v>24.8549341368114</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.75185514568854</v>
+        <v>32.75185514570025</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1.215288540175738</v>
+        <v>1.215288540188357</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.36476082146295</v>
+        <v>19.36476082146091</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.39318310288151</v>
+        <v>25.39318310288288</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.77979186873565</v>
+        <v>12.77979186872598</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.17503260217304</v>
+        <v>28.1750326021013</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.68302390607097</v>
+        <v>33.68302390607927</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.20113021676651</v>
+        <v>33.20113021676117</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.9159217411849</v>
+        <v>41.91592174118422</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.33848865501672</v>
+        <v>46.33848865499444</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>11.56766431594044</v>
+        <v>11.56766431591986</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.40538957421485</v>
+        <v>33.40538957420792</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.14749906098872</v>
+        <v>42.14749906098508</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.1283327627084141</v>
+        <v>0.1283327627399053</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.52117447344519</v>
+        <v>27.52117447338516</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.42149030401357</v>
+        <v>35.42149030398049</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3.87352996111294</v>
+        <v>3.873529961090771</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.0262956449317</v>
+        <v>22.02629564496853</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.05804916038234</v>
+        <v>28.05804916032755</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.44125428980898</v>
+        <v>15.44125428975441</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.83999330221924</v>
+        <v>30.83999330219833</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.09049618710414</v>
+        <v>7.090496187091521</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.48065143815872</v>
+        <v>34.48065143814019</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.37751585484808</v>
+        <v>42.37751585482819</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.84176558241929</v>
+        <v>10.84176558235335</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.99213813392034</v>
+        <v>28.99213813383848</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.02047117182941</v>
+        <v>35.02047117176438</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.40706164745281</v>
+        <v>22.40706164746327</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.80308510349847</v>
+        <v>37.8030851034829</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>43.31098163236949</v>
+        <v>43.31098163236847</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.82979438779297</v>
+        <v>42.8297943878289</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.54471112616513</v>
+        <v>51.54471112615705</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.96724204199212</v>
+        <v>55.96724204200133</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.19529928336364</v>
+        <v>21.19529928332101</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.03414631425609</v>
+        <v>43.03414631417787</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.77608378295419</v>
+        <v>51.77608378291701</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>9.754962151185186</v>
+        <v>9.754962151206445</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.14876940575347</v>
+        <v>37.14876940575301</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.0490287152784</v>
+        <v>45.04902871524293</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>13.5018847079232</v>
+        <v>13.50188470789694</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.65555074285796</v>
+        <v>31.65555074286285</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.68721509363196</v>
+        <v>37.68721509359581</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.07040194308003</v>
+        <v>25.07040194301841</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.46992375829588</v>
+        <v>40.46992375824972</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.88390238945523</v>
+        <v>10.88390238950571</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.27431863178664</v>
+        <v>38.27431863175538</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>46.17124906435926</v>
+        <v>46.17124906435176</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.63607982701605</v>
+        <v>14.63607982700389</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.78675364758102</v>
+        <v>32.78675364755738</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.81515848314895</v>
+        <v>38.81515848314872</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.20148480673085</v>
+        <v>26.20148480674699</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.59777731246164</v>
+        <v>41.59777731244527</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>47.10573073887066</v>
+        <v>47.10573073890352</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.62455105290407</v>
+        <v>46.62455105295227</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.33948831884074</v>
+        <v>55.33948831889235</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.76209005594696</v>
+        <v>59.76209005592115</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.98974566826395</v>
+        <v>24.98974566826236</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.82900008049479</v>
+        <v>46.82900008050014</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>55.57098106831167</v>
+        <v>55.57098106828552</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.54901850276748</v>
+        <v>13.5490185027892</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.94308676237326</v>
+        <v>40.94308676246818</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>48.84341210101765</v>
+        <v>48.84341210103197</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.29684916307226</v>
+        <v>17.29684916307089</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.45081648400004</v>
+        <v>35.45081648400141</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.48255264501917</v>
+        <v>41.48255264499461</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.86547534448768</v>
+        <v>28.86547534449712</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.26526622437792</v>
+        <v>44.26526622436599</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.949398438758198</v>
+        <v>2.949398438745352</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.33913267226207</v>
+        <v>30.33913267220705</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.23628331969714</v>
+        <v>38.23628331965143</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.700564154881153</v>
+        <v>6.70056415489093</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.85062178482373</v>
+        <v>24.85062178479599</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.87928107312645</v>
+        <v>30.87928107311463</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.2651769202454</v>
+        <v>18.2651769201873</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.66094040671</v>
+        <v>33.66094040663167</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.16913264957658</v>
+        <v>39.16913264952292</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.68708825688249</v>
+        <v>38.68708825681666</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.40195756435527</v>
+        <v>47.40195756429365</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>51.82473483328273</v>
+        <v>51.82473483324533</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.0530203278362</v>
+        <v>17.05302032780425</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.89154837167861</v>
+        <v>38.89154837161313</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.63387021859116</v>
+        <v>47.6338702185168</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>5.612967320526213</v>
+        <v>5.612967320529055</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.00635350376173</v>
+        <v>33.00635350375116</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.90689901069415</v>
+        <v>40.90689901065436</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>9.359786098924378</v>
+        <v>9.35978609883627</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.51313717200641</v>
+        <v>27.51313717197606</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.54512772776231</v>
+        <v>33.54512772773275</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>20.92761991478678</v>
+        <v>20.92761991478462</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.32688171767508</v>
+        <v>36.32688171762551</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.35089808807915</v>
+        <v>36.35089808806244</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>35.86962698979006</v>
+        <v>35.86962698980507</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.58746017909904</v>
+        <v>44.58746017909506</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>49.01203161342245</v>
+        <v>49.01203161344223</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>14.23527410611986</v>
+        <v>14.23527410613862</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.08011914360863</v>
+        <v>36.08011914362181</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.82411990868367</v>
+        <v>44.82411990869959</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.19701750955109</v>
+        <v>10.19701750954313</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.59220808615261</v>
+        <v>37.5922080861351</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.49369146669825</v>
+        <v>45.49369146669484</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.94711462575539</v>
+        <v>13.94711462573357</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.10250166148434</v>
+        <v>32.10250166146183</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.13536487843534</v>
+        <v>38.13536487844546</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.51735960209875</v>
+        <v>25.51735960207431</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.91829435545959</v>
+        <v>40.91829435541571</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.43032024309947</v>
+        <v>46.43032024307844</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>45.95312662828736</v>
+        <v>45.9531266282968</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>54.67207370557516</v>
+        <v>54.67207370555606</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>59.09718803293892</v>
+        <v>59.09718803294722</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.31488558911873</v>
+        <v>24.31488558909861</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.16237226926741</v>
+        <v>46.16237226928628</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.9081544952593</v>
+        <v>54.90815449527283</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>45.98073383363364</v>
+        <v>45.98073383359453</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.50016903025575</v>
+        <v>45.5001690303326</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.21812743231693</v>
+        <v>54.21812743225929</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.64266289340027</v>
+        <v>58.64266289336969</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.86478691823915</v>
+        <v>23.86478691824518</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.71075385378573</v>
+        <v>45.71075385381688</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>54.45458264607807</v>
+        <v>54.45458264607466</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.82516491723279</v>
+        <v>19.82516491723426</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.22132105919833</v>
+        <v>47.22132105917355</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.12274789450227</v>
+        <v>55.12274789449022</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.57698766419221</v>
+        <v>23.57698766412115</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.73327507625733</v>
+        <v>41.73327507618639</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.76604910289213</v>
+        <v>47.76604910289349</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.14802558033877</v>
+        <v>35.14802558034411</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>50.54974315660787</v>
+        <v>50.54974315658173</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.06167430909535</v>
+        <v>56.06167430905465</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.58518706080942</v>
+        <v>55.58518706078839</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.30425935131645</v>
+        <v>64.30425935128598</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>68.72933769779776</v>
+        <v>68.72933769776343</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.94591674004666</v>
+        <v>33.94591673998856</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>55.79452533021926</v>
+        <v>55.79452533018549</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.54013558080364</v>
+        <v>64.54013558076441</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>49.77613320953505</v>
+        <v>49.77613320953209</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>49.29557583764814</v>
+        <v>49.29557583770317</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.01355475057859</v>
+        <v>58.01355475059042</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>62.43816104465078</v>
+        <v>62.43816104465283</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.65988349183853</v>
+        <v>27.65988349187866</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.50625782075851</v>
+        <v>49.50625782076033</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>58.25013014408025</v>
+        <v>58.25013014410651</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.62010766588823</v>
+        <v>23.62010766588914</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.01652481705425</v>
+        <v>51.0165248170597</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>58.91801766599805</v>
+        <v>58.91801766601806</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.37283858942842</v>
+        <v>27.37283858942387</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>45.52942729178518</v>
+        <v>45.52942729177654</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.56227311603665</v>
+        <v>51.56227311605268</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.94398547682046</v>
+        <v>38.94398547680784</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>54.34597212180167</v>
+        <v>54.34597212176892</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>59.85796016945916</v>
+        <v>59.85796016940914</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>59.38148036462827</v>
+        <v>59.38148036462884</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.10057315865301</v>
+        <v>68.10057315867392</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>72.52572233217883</v>
+        <v>72.52572233217246</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.74189977119501</v>
+        <v>37.74189977117943</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.59091575112588</v>
+        <v>59.59091575111508</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.33656952549872</v>
+        <v>68.33656952551475</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>41.8379874756579</v>
+        <v>41.8379874755998</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.35656542991741</v>
+        <v>41.3565654299414</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.07447638577368</v>
+        <v>50.0744763857514</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>54.49925821259491</v>
+        <v>54.49925821260821</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.72161062575312</v>
+        <v>19.72161062575301</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.56725849507929</v>
+        <v>41.56725849510828</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.31147164980781</v>
+        <v>50.3114716498177</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.68335687036883</v>
+        <v>15.68335687036724</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.07909194098069</v>
+        <v>43.07909194096068</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.98080497698642</v>
+        <v>50.98080497690206</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.43507570557269</v>
+        <v>19.43507570551585</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.5910481531529</v>
+        <v>37.59104815309878</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.62414839627662</v>
+        <v>43.62414839623342</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.00543023382342</v>
+        <v>31.00543023378215</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.40688779847905</v>
+        <v>46.4068877984064</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>51.91911463928604</v>
+        <v>51.91911463918815</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.44177011859837</v>
+        <v>51.44177011857256</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>60.16079495434839</v>
+        <v>60.16079495428041</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.58611966551054</v>
+        <v>64.58611966546211</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.8029270552736</v>
+        <v>29.80292705526803</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.65121657561669</v>
+        <v>51.65121657560111</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.39721118893307</v>
+        <v>60.39721118895217</v>
       </c>
     </row>
   </sheetData>
